--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/MISSISSIPPI_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/MISSISSIPPI_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D744"/>
+  <dimension ref="A1:D738"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>ASIENTOS</t>
+          <t>Asientos</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>CALVILLO</t>
+          <t>Calvillo</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>PABELLÓN DE ARTEAGA</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>RINCÓN DE ROMOS</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>TEPEZALÁ</t>
+          <t>Tepezalá</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9">
@@ -491,12 +491,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENSENADA</t>
+          <t>Ensenada</t>
         </is>
       </c>
       <c r="C10">
@@ -509,7 +509,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
+          <t>Mexicali</t>
         </is>
       </c>
       <c r="C11">
@@ -522,7 +522,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C12">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C13">
@@ -548,12 +548,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="C14">
@@ -566,7 +566,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>CARMEN</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="C15">
@@ -579,7 +579,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHAMPOTÓN</t>
+          <t>Champotón</t>
         </is>
       </c>
       <c r="C16">
@@ -592,7 +592,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>ESCÁRCEGA</t>
+          <t>Escárcega</t>
         </is>
       </c>
       <c r="C17">
@@ -605,7 +605,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>HOPELCHÉN</t>
+          <t>Hopelchén</t>
         </is>
       </c>
       <c r="C18">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C19">
@@ -631,12 +631,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ACAPETAHUA</t>
+          <t>Acapetahua</t>
         </is>
       </c>
       <c r="C20">
@@ -649,7 +649,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>AMATENANGO DE LA FRONTERA</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C21">
@@ -662,7 +662,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>ANGEL ALBINO CORZO</t>
+          <t>Angel Albino Corzo</t>
         </is>
       </c>
       <c r="C22">
@@ -675,7 +675,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>ARRIAGA</t>
+          <t>Arriaga</t>
         </is>
       </c>
       <c r="C23">
@@ -688,7 +688,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>BELLA VISTA</t>
+          <t>Bella Vista</t>
         </is>
       </c>
       <c r="C24">
@@ -701,7 +701,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>BENEMÉRITO DE LAS AMÉRICAS</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C25">
@@ -714,7 +714,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>BOCHIL</t>
+          <t>Bochil</t>
         </is>
       </c>
       <c r="C26">
@@ -727,7 +727,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>CACAHOATÁN</t>
+          <t>Cacahoatán</t>
         </is>
       </c>
       <c r="C27">
@@ -740,7 +740,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHAMULA</t>
+          <t>Chamula</t>
         </is>
       </c>
       <c r="C28">
@@ -753,7 +753,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>CHIAPA DE CORZO</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C29">
@@ -766,7 +766,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>CHICOASÉN</t>
+          <t>Chicoasén</t>
         </is>
       </c>
       <c r="C30">
@@ -779,7 +779,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>CHICOMUSELO</t>
+          <t>Chicomuselo</t>
         </is>
       </c>
       <c r="C31">
@@ -792,7 +792,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>CINTALAPA</t>
+          <t>Cintalapa</t>
         </is>
       </c>
       <c r="C32">
@@ -805,7 +805,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>COMITÁN DE DOMÍNGUEZ</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C33">
@@ -818,7 +818,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>El Porvenir</t>
         </is>
       </c>
       <c r="C34">
@@ -831,7 +831,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>ESCUINTLA</t>
+          <t>Escuintla</t>
         </is>
       </c>
       <c r="C35">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>FRONTERA COMALAPA</t>
+          <t>Frontera Comalapa</t>
         </is>
       </c>
       <c r="C36">
@@ -857,7 +857,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>HUEHUETÁN</t>
+          <t>Huehuetán</t>
         </is>
       </c>
       <c r="C37">
@@ -870,7 +870,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>HUITIUPÁN</t>
+          <t>Huitiupán</t>
         </is>
       </c>
       <c r="C38">
@@ -883,7 +883,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>HUIXTLA</t>
+          <t>Huixtla</t>
         </is>
       </c>
       <c r="C39">
@@ -896,7 +896,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>LA CONCORDIA</t>
+          <t>La Concordia</t>
         </is>
       </c>
       <c r="C40">
@@ -909,7 +909,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>LA INDEPENDENCIA</t>
+          <t>La Independencia</t>
         </is>
       </c>
       <c r="C41">
@@ -922,7 +922,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>LA TRINITARIA</t>
+          <t>La Trinitaria</t>
         </is>
       </c>
       <c r="C42">
@@ -935,7 +935,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
+          <t>Las Margaritas</t>
         </is>
       </c>
       <c r="C43">
@@ -948,7 +948,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>MAPASTEPEC</t>
+          <t>Mapastepec</t>
         </is>
       </c>
       <c r="C44">
@@ -961,7 +961,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>MARQUÉS DE COMILLAS</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C45">
@@ -974,7 +974,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>MAZATÁN</t>
+          <t>Mazatán</t>
         </is>
       </c>
       <c r="C46">
@@ -987,7 +987,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>MOTOZINTLA</t>
+          <t>Motozintla</t>
         </is>
       </c>
       <c r="C47">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>Ocosingo</t>
         </is>
       </c>
       <c r="C48">
@@ -1013,7 +1013,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>OCOTEPEC</t>
+          <t>Ocotepec</t>
         </is>
       </c>
       <c r="C49">
@@ -1026,7 +1026,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>OCOZOCOAUTLA DE ESPINOSA</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C50">
@@ -1039,7 +1039,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>OSTUACÁN</t>
+          <t>Ostuacán</t>
         </is>
       </c>
       <c r="C51">
@@ -1052,7 +1052,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>PALENQUE</t>
+          <t>Palenque</t>
         </is>
       </c>
       <c r="C52">
@@ -1065,7 +1065,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>PANTELHÓ</t>
+          <t>Pantelhó</t>
         </is>
       </c>
       <c r="C53">
@@ -1078,7 +1078,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>PANTEPEC</t>
+          <t>Pantepec</t>
         </is>
       </c>
       <c r="C54">
@@ -1091,7 +1091,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>PICHUCALCO</t>
+          <t>Pichucalco</t>
         </is>
       </c>
       <c r="C55">
@@ -1104,7 +1104,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>PIJIJIAPAN</t>
+          <t>Pijijiapan</t>
         </is>
       </c>
       <c r="C56">
@@ -1117,7 +1117,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO SOLISTAHUACÁN</t>
+          <t>Pueblo Nuevo Solistahuacán</t>
         </is>
       </c>
       <c r="C57">
@@ -1130,7 +1130,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>REFORMA</t>
+          <t>Reforma</t>
         </is>
       </c>
       <c r="C58">
@@ -1143,7 +1143,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>SABANILLA</t>
+          <t>Sabanilla</t>
         </is>
       </c>
       <c r="C59">
@@ -1156,7 +1156,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL DE LAS CASAS</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C60">
@@ -1169,7 +1169,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>SAN JUAN CANCUC</t>
+          <t>San Juan Cancuc</t>
         </is>
       </c>
       <c r="C61">
@@ -1182,7 +1182,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>SILTEPEC</t>
+          <t>Siltepec</t>
         </is>
       </c>
       <c r="C62">
@@ -1195,7 +1195,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>SIMOJOVEL</t>
+          <t>Simojovel</t>
         </is>
       </c>
       <c r="C63">
@@ -1208,7 +1208,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>SITALÁ</t>
+          <t>Sitalá</t>
         </is>
       </c>
       <c r="C64">
@@ -1221,7 +1221,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>SOCOLTENANGO</t>
+          <t>Socoltenango</t>
         </is>
       </c>
       <c r="C65">
@@ -1234,7 +1234,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>SUCHIATE</t>
+          <t>Suchiate</t>
         </is>
       </c>
       <c r="C66">
@@ -1247,7 +1247,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="C67">
@@ -1260,7 +1260,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>TAPALAPA</t>
+          <t>Tapalapa</t>
         </is>
       </c>
       <c r="C68">
@@ -1273,7 +1273,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>TAPILULA</t>
+          <t>Tapilula</t>
         </is>
       </c>
       <c r="C69">
@@ -1286,7 +1286,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>TECPATÁN</t>
+          <t>Tecpatán</t>
         </is>
       </c>
       <c r="C70">
@@ -1299,7 +1299,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>TENEJAPA</t>
+          <t>Tenejapa</t>
         </is>
       </c>
       <c r="C71">
@@ -1312,7 +1312,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>TEOPISCA</t>
+          <t>Teopisca</t>
         </is>
       </c>
       <c r="C72">
@@ -1325,7 +1325,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>TILA</t>
+          <t>Tila</t>
         </is>
       </c>
       <c r="C73">
@@ -1338,7 +1338,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C74">
@@ -1351,7 +1351,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>TUMBALÁ</t>
+          <t>Tumbalá</t>
         </is>
       </c>
       <c r="C75">
@@ -1364,7 +1364,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>TUXTLA CHICO</t>
+          <t>Tuxtla Chico</t>
         </is>
       </c>
       <c r="C76">
@@ -1377,7 +1377,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>TUXTLA GUTIÉRREZ</t>
+          <t>Tuxtla Gutiérrez</t>
         </is>
       </c>
       <c r="C77">
@@ -1390,7 +1390,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C78">
@@ -1403,7 +1403,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>VILLA COMALTITLÁN</t>
+          <t>Villa Comaltitlán</t>
         </is>
       </c>
       <c r="C79">
@@ -1416,7 +1416,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>VILLA CORZO</t>
+          <t>Villa Corzo</t>
         </is>
       </c>
       <c r="C80">
@@ -1429,7 +1429,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>ZINACANTÁN</t>
+          <t>Zinacantán</t>
         </is>
       </c>
       <c r="C81">
@@ -1442,7 +1442,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C82">
@@ -1455,12 +1455,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CARICHÍ</t>
+          <t>Carichí</t>
         </is>
       </c>
       <c r="C83">
@@ -1473,7 +1473,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C84">
@@ -1486,7 +1486,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C85">
@@ -1499,7 +1499,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>DELICIAS</t>
+          <t>Delicias</t>
         </is>
       </c>
       <c r="C86">
@@ -1512,7 +1512,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>DR. BELISARIO DOMÍNGUEZ</t>
+          <t>Dr. Belisario Domínguez</t>
         </is>
       </c>
       <c r="C87">
@@ -1525,7 +1525,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>GUACHOCHI</t>
+          <t>Guachochi</t>
         </is>
       </c>
       <c r="C88">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="C89">
@@ -1551,7 +1551,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>GÓMEZ FARÍAS</t>
+          <t>Gómez Farías</t>
         </is>
       </c>
       <c r="C90">
@@ -1564,7 +1564,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C91">
@@ -1577,7 +1577,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>NUEVO CASAS GRANDES</t>
+          <t>Nuevo Casas Grandes</t>
         </is>
       </c>
       <c r="C92">
@@ -1590,7 +1590,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DE BORJA</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C93">
@@ -1603,7 +1603,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C94">
@@ -1616,12 +1616,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C95">
@@ -1634,7 +1634,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C96">
@@ -1647,7 +1647,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>COYOACÁN</t>
+          <t>Coyoacán</t>
         </is>
       </c>
       <c r="C97">
@@ -1660,7 +1660,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C98">
@@ -1673,7 +1673,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C99">
@@ -1686,7 +1686,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C100">
@@ -1699,7 +1699,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C101">
@@ -1712,7 +1712,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>LA MAGDALENA CONTRERAS</t>
+          <t>La Magdalena Contreras</t>
         </is>
       </c>
       <c r="C102">
@@ -1725,7 +1725,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C103">
@@ -1738,7 +1738,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>MILPA ALTA</t>
+          <t>Milpa Alta</t>
         </is>
       </c>
       <c r="C104">
@@ -1751,7 +1751,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>TLALPAN</t>
+          <t>Tlalpan</t>
         </is>
       </c>
       <c r="C105">
@@ -1764,7 +1764,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>TLÁHUAC</t>
+          <t>Tláhuac</t>
         </is>
       </c>
       <c r="C106">
@@ -1777,7 +1777,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C107">
@@ -1790,7 +1790,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>XOCHIMILCO</t>
+          <t>Xochimilco</t>
         </is>
       </c>
       <c r="C108">
@@ -1803,7 +1803,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C109">
@@ -1816,7 +1816,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C110">
@@ -1829,12 +1829,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ACUÑA</t>
+          <t>Acuña</t>
         </is>
       </c>
       <c r="C111">
@@ -1847,7 +1847,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>ALLENDE</t>
+          <t>Allende</t>
         </is>
       </c>
       <c r="C112">
@@ -1860,7 +1860,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C113">
@@ -1873,7 +1873,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>MONCLOVA</t>
+          <t>Monclova</t>
         </is>
       </c>
       <c r="C114">
@@ -1886,7 +1886,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>MÚZQUIZ</t>
+          <t>Múzquiz</t>
         </is>
       </c>
       <c r="C115">
@@ -1899,7 +1899,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>PIEDRAS NEGRAS</t>
+          <t>Piedras Negras</t>
         </is>
       </c>
       <c r="C116">
@@ -1912,7 +1912,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>SALTILLO</t>
+          <t>Saltillo</t>
         </is>
       </c>
       <c r="C117">
@@ -1925,7 +1925,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>SAN JUAN DE SABINAS</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C118">
@@ -1938,7 +1938,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>SAN PEDRO</t>
+          <t>San Pedro</t>
         </is>
       </c>
       <c r="C119">
@@ -1951,7 +1951,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>TORREÓN</t>
+          <t>Torreón</t>
         </is>
       </c>
       <c r="C120">
@@ -1964,7 +1964,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C121">
@@ -1977,12 +1977,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TECOMÁN</t>
+          <t>Tecomán</t>
         </is>
       </c>
       <c r="C122">
@@ -1995,7 +1995,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C123">
@@ -2008,12 +2008,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CANATLÁN</t>
+          <t>Canatlán</t>
         </is>
       </c>
       <c r="C124">
@@ -2026,7 +2026,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>CUENCAMÉ</t>
+          <t>Cuencamé</t>
         </is>
       </c>
       <c r="C125">
@@ -2039,7 +2039,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C126">
@@ -2052,7 +2052,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>GUADALUPE VICTORIA</t>
+          <t>Guadalupe Victoria</t>
         </is>
       </c>
       <c r="C127">
@@ -2065,7 +2065,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>GÓMEZ PALACIO</t>
+          <t>Gómez Palacio</t>
         </is>
       </c>
       <c r="C128">
@@ -2078,7 +2078,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>LERDO</t>
+          <t>Lerdo</t>
         </is>
       </c>
       <c r="C129">
@@ -2091,7 +2091,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>NOMBRE DE DIOS</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C130">
@@ -2104,7 +2104,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>SAN PEDRO DEL GALLO</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C131">
@@ -2117,7 +2117,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>SANTIAGO PAPASQUIARO</t>
+          <t>Santiago Papasquiaro</t>
         </is>
       </c>
       <c r="C132">
@@ -2130,7 +2130,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>TLAHUALILO</t>
+          <t>Tlahualilo</t>
         </is>
       </c>
       <c r="C133">
@@ -2143,7 +2143,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C134">
@@ -2156,12 +2156,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ACAMBAY DE RUÍZ CASTAÑEDA</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C135">
@@ -2174,7 +2174,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>AMATEPEC</t>
+          <t>Amatepec</t>
         </is>
       </c>
       <c r="C136">
@@ -2187,7 +2187,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>AMECAMECA</t>
+          <t>Amecameca</t>
         </is>
       </c>
       <c r="C137">
@@ -2200,7 +2200,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>ATIZAPÁN DE ZARAGOZA</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C138">
@@ -2213,7 +2213,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>ATLAUTLA</t>
+          <t>Atlautla</t>
         </is>
       </c>
       <c r="C139">
@@ -2226,7 +2226,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>AXAPUSCO</t>
+          <t>Axapusco</t>
         </is>
       </c>
       <c r="C140">
@@ -2239,7 +2239,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>CHALCO</t>
+          <t>Chalco</t>
         </is>
       </c>
       <c r="C141">
@@ -2252,7 +2252,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>CHICONCUAC</t>
+          <t>Chiconcuac</t>
         </is>
       </c>
       <c r="C142">
@@ -2265,7 +2265,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>CHIMALHUACÁN</t>
+          <t>Chimalhuacán</t>
         </is>
       </c>
       <c r="C143">
@@ -2278,7 +2278,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>COATEPEC HARINAS</t>
+          <t>Coatepec Harinas</t>
         </is>
       </c>
       <c r="C144">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>COYOTEPEC</t>
+          <t>Coyotepec</t>
         </is>
       </c>
       <c r="C145">
@@ -2304,7 +2304,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN</t>
+          <t>Cuautitlán</t>
         </is>
       </c>
       <c r="C146">
@@ -2317,7 +2317,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN IZCALLI</t>
+          <t>Cuautitlán Izcalli</t>
         </is>
       </c>
       <c r="C147">
@@ -2330,7 +2330,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C148">
@@ -2343,7 +2343,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>EL ORO</t>
+          <t>El Oro</t>
         </is>
       </c>
       <c r="C149">
@@ -2356,7 +2356,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>HUEHUETOCA</t>
+          <t>Huehuetoca</t>
         </is>
       </c>
       <c r="C150">
@@ -2369,7 +2369,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>IXTAPALUCA</t>
+          <t>Ixtapaluca</t>
         </is>
       </c>
       <c r="C151">
@@ -2382,7 +2382,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>IXTAPAN DE LA SAL</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C152">
@@ -2395,7 +2395,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>IXTLAHUACA</t>
+          <t>Ixtlahuaca</t>
         </is>
       </c>
       <c r="C153">
@@ -2408,7 +2408,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>JILOTEPEC</t>
+          <t>Jilotepec</t>
         </is>
       </c>
       <c r="C154">
@@ -2421,7 +2421,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>JIQUIPILCO</t>
+          <t>Jiquipilco</t>
         </is>
       </c>
       <c r="C155">
@@ -2434,7 +2434,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C156">
@@ -2447,7 +2447,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUÁREZ</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C157">
@@ -2460,7 +2460,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C158">
@@ -2473,7 +2473,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>OTUMBA</t>
+          <t>Otumba</t>
         </is>
       </c>
       <c r="C159">
@@ -2486,7 +2486,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>OZUMBA</t>
+          <t>Ozumba</t>
         </is>
       </c>
       <c r="C160">
@@ -2499,7 +2499,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>SAN FELIPE DEL PROGRESO</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C161">
@@ -2512,7 +2512,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>SAN JOSÉ DEL RINCÓN</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C162">
@@ -2525,7 +2525,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE LAS PIRÁMIDES</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C163">
@@ -2538,7 +2538,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>SULTEPEC</t>
+          <t>Sultepec</t>
         </is>
       </c>
       <c r="C164">
@@ -2551,7 +2551,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>TEJUPILCO</t>
+          <t>Tejupilco</t>
         </is>
       </c>
       <c r="C165">
@@ -2564,7 +2564,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>TEMASCALCINGO</t>
+          <t>Temascalcingo</t>
         </is>
       </c>
       <c r="C166">
@@ -2577,7 +2577,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>TEMASCALTEPEC</t>
+          <t>Temascaltepec</t>
         </is>
       </c>
       <c r="C167">
@@ -2590,7 +2590,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>Tenancingo</t>
         </is>
       </c>
       <c r="C168">
@@ -2603,7 +2603,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>TEPETLIXPA</t>
+          <t>Tepetlixpa</t>
         </is>
       </c>
       <c r="C169">
@@ -2616,7 +2616,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>TIMILPAN</t>
+          <t>Timilpan</t>
         </is>
       </c>
       <c r="C170">
@@ -2629,7 +2629,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA DE BAZ</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C171">
@@ -2642,7 +2642,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C172">
@@ -2655,7 +2655,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>TULTEPEC</t>
+          <t>Tultepec</t>
         </is>
       </c>
       <c r="C173">
@@ -2668,7 +2668,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>VALLE DE CHALCO SOLIDARIDAD</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C174">
@@ -2681,7 +2681,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>VILLA DEL CARBÓN</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C175">
@@ -2694,7 +2694,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>VILLA GUERRERO</t>
+          <t>Villa Guerrero</t>
         </is>
       </c>
       <c r="C176">
@@ -2707,7 +2707,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C177">
@@ -2720,12 +2720,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ACÁMBARO</t>
+          <t>Acámbaro</t>
         </is>
       </c>
       <c r="C178">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>APASEO EL ALTO</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C179">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>APASEO EL GRANDE</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C180">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>CELAYA</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="C181">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>COMONFORT</t>
+          <t>Comonfort</t>
         </is>
       </c>
       <c r="C182">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>CORTAZAR</t>
+          <t>Cortazar</t>
         </is>
       </c>
       <c r="C183">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>DOCTOR MORA</t>
+          <t>Doctor Mora</t>
         </is>
       </c>
       <c r="C184">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>DOLORES HIDALGO CUNA DE LA INDEPENDENCIA NACIONAL</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C185">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C186">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C187">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>JARAL DEL PROGRESO</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C188">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>JERÉCUARO</t>
+          <t>Jerécuaro</t>
         </is>
       </c>
       <c r="C189">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>León</t>
         </is>
       </c>
       <c r="C190">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>MANUEL DOBLADO</t>
+          <t>Manuel Doblado</t>
         </is>
       </c>
       <c r="C191">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C192">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>PÉNJAMO</t>
+          <t>Pénjamo</t>
         </is>
       </c>
       <c r="C193">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>SALAMANCA</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="C194">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>SAN DIEGO DE LA UNIÓN</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C195">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="C196">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL RINCÓN</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C197">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>SAN JOSÉ ITURBIDE</t>
+          <t>San José Iturbide</t>
         </is>
       </c>
       <c r="C198">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>SAN LUIS DE LA PAZ</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C199">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DE ALLENDE</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C200">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE JUVENTINO ROSAS</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C201">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>SANTIAGO MARAVATÍO</t>
+          <t>Santiago Maravatío</t>
         </is>
       </c>
       <c r="C202">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>TARIMORO</t>
+          <t>Tarimoro</t>
         </is>
       </c>
       <c r="C203">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>URIANGATO</t>
+          <t>Uriangato</t>
         </is>
       </c>
       <c r="C204">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>VALLE DE SANTIAGO</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C205">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>VICTORIA</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C206">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>VILLAGRÁN</t>
+          <t>Villagrán</t>
         </is>
       </c>
       <c r="C207">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>XICHÚ</t>
+          <t>Xichú</t>
         </is>
       </c>
       <c r="C208">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C209">
@@ -3141,12 +3141,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUÁREZ</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C210">
@@ -3159,7 +3159,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>ACATEPEC</t>
+          <t>Acatepec</t>
         </is>
       </c>
       <c r="C211">
@@ -3172,7 +3172,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>AHUACUOTZINGO</t>
+          <t>Ahuacuotzingo</t>
         </is>
       </c>
       <c r="C212">
@@ -3185,7 +3185,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>AJUCHITLÁN DEL PROGRESO</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C213">
@@ -3198,7 +3198,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>ARCELIA</t>
+          <t>Arcelia</t>
         </is>
       </c>
       <c r="C214">
@@ -3211,7 +3211,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>ATENANGO DEL RÍO</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C215">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>ATLIXTAC</t>
+          <t>Atlixtac</t>
         </is>
       </c>
       <c r="C216">
@@ -3237,7 +3237,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>ATOYAC DE ÁLVAREZ</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C217">
@@ -3250,7 +3250,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>AYUTLA DE LOS LIBRES</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C218">
@@ -3263,7 +3263,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>CHILAPA DE ÁLVAREZ</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C219">
@@ -3276,7 +3276,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>CHILPANCINGO DE LOS BRAVO</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C220">
@@ -3289,7 +3289,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>COPALILLO</t>
+          <t>Copalillo</t>
         </is>
       </c>
       <c r="C221">
@@ -3302,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>COYUCA DE BENÍTEZ</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C222">
@@ -3315,7 +3315,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>COYUCA DE CATALÁN</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C223">
@@ -3328,7 +3328,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>CUAJINICUILAPA</t>
+          <t>Cuajinicuilapa</t>
         </is>
       </c>
       <c r="C224">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>CUETZALA DEL PROGRESO</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C225">
@@ -3354,7 +3354,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>CUTZAMALA DE PINZÓN</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C226">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>GENERAL HELIODORO CASTILLO</t>
+          <t>General Heliodoro Castillo</t>
         </is>
       </c>
       <c r="C227">
@@ -3380,7 +3380,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>HUITZUCO DE LOS FIGUEROA</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C228">
@@ -3393,7 +3393,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>IGUALA DE LA INDEPENDENCIA</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C229">
@@ -3406,7 +3406,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>LEONARDO BRAVO</t>
+          <t>Leonardo Bravo</t>
         </is>
       </c>
       <c r="C230">
@@ -3419,7 +3419,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>MALINALTEPEC</t>
+          <t>Malinaltepec</t>
         </is>
       </c>
       <c r="C231">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>METLATÓNOC</t>
+          <t>Metlatónoc</t>
         </is>
       </c>
       <c r="C232">
@@ -3445,7 +3445,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>MÁRTIR DE CUILAPAN</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C233">
@@ -3458,7 +3458,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>OLINALÁ</t>
+          <t>Olinalá</t>
         </is>
       </c>
       <c r="C234">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>OMETEPEC</t>
+          <t>Ometepec</t>
         </is>
       </c>
       <c r="C235">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>PEDRO ASCENCIO ALQUISIRAS</t>
+          <t>Pedro Ascencio Alquisiras</t>
         </is>
       </c>
       <c r="C236">
@@ -3497,7 +3497,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>PETATLÁN</t>
+          <t>Petatlán</t>
         </is>
       </c>
       <c r="C237">
@@ -3510,7 +3510,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>QUECHULTENANGO</t>
+          <t>Quechultenango</t>
         </is>
       </c>
       <c r="C238">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>SAN LUIS ACATLÁN</t>
+          <t>San Luis Acatlán</t>
         </is>
       </c>
       <c r="C239">
@@ -3536,7 +3536,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="C240">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TOTOLAPAN</t>
+          <t>San Miguel Totolapan</t>
         </is>
       </c>
       <c r="C241">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>TAXCO DE ALARCÓN</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C242">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>TEPECOACUILCO DE TRUJANO</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C243">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>TLACOACHISTLAHUACA</t>
+          <t>Tlacoachistlahuaca</t>
         </is>
       </c>
       <c r="C244">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>TLACOAPA</t>
+          <t>Tlacoapa</t>
         </is>
       </c>
       <c r="C245">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>TLALCHAPA</t>
+          <t>Tlalchapa</t>
         </is>
       </c>
       <c r="C246">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>TLAPA DE COMONFORT</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C247">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>TÉCPAN DE GALEANA</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C248">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>XOCHISTLAHUACA</t>
+          <t>Xochistlahuaca</t>
         </is>
       </c>
       <c r="C249">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN TABLAS</t>
+          <t>Zapotitlán Tablas</t>
         </is>
       </c>
       <c r="C250">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>ZIHUATANEJO DE AZUETA</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C251">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>ZIRÁNDARO</t>
+          <t>Zirándaro</t>
         </is>
       </c>
       <c r="C252">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C253">
@@ -3718,12 +3718,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C254">
@@ -3736,7 +3736,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>AGUA BLANCA DE ITURBIDE</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C255">
@@ -3749,7 +3749,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>AJACUBA</t>
+          <t>Ajacuba</t>
         </is>
       </c>
       <c r="C256">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>ALFAJAYUCAN</t>
+          <t>Alfajayucan</t>
         </is>
       </c>
       <c r="C257">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>APAN</t>
+          <t>Apan</t>
         </is>
       </c>
       <c r="C258">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>CARDONAL</t>
+          <t>Cardonal</t>
         </is>
       </c>
       <c r="C259">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>CHAPANTONGO</t>
+          <t>Chapantongo</t>
         </is>
       </c>
       <c r="C260">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>CHAPULHUACÁN</t>
+          <t>Chapulhuacán</t>
         </is>
       </c>
       <c r="C261">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C262">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>HUAZALINGO</t>
+          <t>Huazalingo</t>
         </is>
       </c>
       <c r="C263">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>HUEHUETLA</t>
+          <t>Huehuetla</t>
         </is>
       </c>
       <c r="C264">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>HUICHAPAN</t>
+          <t>Huichapan</t>
         </is>
       </c>
       <c r="C265">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>IXMIQUILPAN</t>
+          <t>Ixmiquilpan</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>JACALA DE LEDEZMA</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C267">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>LA MISIÓN</t>
+          <t>La Misión</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>METZTITLÁN</t>
+          <t>Metztitlán</t>
         </is>
       </c>
       <c r="C269">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>MIXQUIAHUALA DE JUÁREZ</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C270">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>NICOLÁS FLORES</t>
+          <t>Nicolás Flores</t>
         </is>
       </c>
       <c r="C271">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C272">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>PACULA</t>
+          <t>Pacula</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>PISAFLORES</t>
+          <t>Pisaflores</t>
         </is>
       </c>
       <c r="C274">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>PROGRESO DE OBREGÓN</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C275">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN TLAXIACA</t>
+          <t>San Agustín Tlaxiaca</t>
         </is>
       </c>
       <c r="C276">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>SAN BARTOLO TUTOTEPEC</t>
+          <t>San Bartolo Tutotepec</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>SAN SALVADOR</t>
+          <t>San Salvador</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>SANTIAGO DE ANAYA</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C279">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>TASQUILLO</t>
+          <t>Tasquillo</t>
         </is>
       </c>
       <c r="C280">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>TENANGO DE DORIA</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C281">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>TEPEAPULCO</t>
+          <t>Tepeapulco</t>
         </is>
       </c>
       <c r="C282">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>TEPEHUACÁN DE GUERRERO</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C283">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>TEPEJI DEL RÍO DE OCAMPO</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C284">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>TEZONTEPEC DE ALDAMA</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C285">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>TIANGUISTENGO</t>
+          <t>Tianguistengo</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>TLANCHINOL</t>
+          <t>Tlanchinol</t>
         </is>
       </c>
       <c r="C287">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>TLAXCOAPAN</t>
+          <t>Tlaxcoapan</t>
         </is>
       </c>
       <c r="C288">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>TULA DE ALLENDE</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C289">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>TULANCINGO DE BRAVO</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>ZACUALTIPÁN DE ÁNGELES</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C291">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>ZIMAPÁN</t>
+          <t>Zimapán</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,12 +4243,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ACATIC</t>
+          <t>Acatic</t>
         </is>
       </c>
       <c r="C294">
@@ -4261,7 +4261,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>ARANDAS</t>
+          <t>Arandas</t>
         </is>
       </c>
       <c r="C295">
@@ -4274,7 +4274,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>AUTLÁN DE NAVARRO</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C296">
@@ -4287,7 +4287,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>AYOTLÁN</t>
+          <t>Ayotlán</t>
         </is>
       </c>
       <c r="C297">
@@ -4300,7 +4300,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>CABO CORRIENTES</t>
+          <t>Cabo Corrientes</t>
         </is>
       </c>
       <c r="C298">
@@ -4313,7 +4313,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>CASIMIRO CASTILLO</t>
+          <t>Casimiro Castillo</t>
         </is>
       </c>
       <c r="C299">
@@ -4326,7 +4326,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>CAÑADAS DE OBREGÓN</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C300">
@@ -4339,7 +4339,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>CHIQUILISTLÁN</t>
+          <t>Chiquilistlán</t>
         </is>
       </c>
       <c r="C301">
@@ -4352,7 +4352,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>DEGOLLADO</t>
+          <t>Degollado</t>
         </is>
       </c>
       <c r="C302">
@@ -4365,7 +4365,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>EL GRULLO</t>
+          <t>El Grullo</t>
         </is>
       </c>
       <c r="C303">
@@ -4378,7 +4378,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>ENCARNACIÓN DE DÍAZ</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C304">
@@ -4391,7 +4391,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>ETZATLÁN</t>
+          <t>Etzatlán</t>
         </is>
       </c>
       <c r="C305">
@@ -4404,7 +4404,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C306">
@@ -4417,7 +4417,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>HOSTOTIPAQUILLO</t>
+          <t>Hostotipaquillo</t>
         </is>
       </c>
       <c r="C307">
@@ -4430,7 +4430,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>JALOSTOTITLÁN</t>
+          <t>Jalostotitlán</t>
         </is>
       </c>
       <c r="C308">
@@ -4443,7 +4443,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C309">
@@ -4456,7 +4456,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>JILOTLÁN DE LOS DOLORES</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C310">
@@ -4469,7 +4469,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>LA MANZANILLA DE LA PAZ</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C311">
@@ -4482,7 +4482,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>LAGOS DE MORENO</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C312">
@@ -4495,7 +4495,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>Magdalena</t>
         </is>
       </c>
       <c r="C313">
@@ -4508,7 +4508,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>MEZQUITIC</t>
+          <t>Mezquitic</t>
         </is>
       </c>
       <c r="C314">
@@ -4521,7 +4521,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C315">
@@ -4534,7 +4534,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>PUERTO VALLARTA</t>
+          <t>Puerto Vallarta</t>
         </is>
       </c>
       <c r="C316">
@@ -4547,7 +4547,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>SAN MIGUEL EL ALTO</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C317">
@@ -4560,7 +4560,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>SAN PEDRO TLAQUEPAQUE</t>
+          <t>San Pedro Tlaquepaque</t>
         </is>
       </c>
       <c r="C318">
@@ -4573,7 +4573,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>TAMAZULA DE GORDIANO</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C319">
@@ -4586,7 +4586,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>TEPATITLÁN DE MORELOS</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C320">
@@ -4599,7 +4599,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>TEQUILA</t>
+          <t>Tequila</t>
         </is>
       </c>
       <c r="C321">
@@ -4612,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>TIZAPÁN EL ALTO</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C322">
@@ -4625,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>TOMATLÁN</t>
+          <t>Tomatlán</t>
         </is>
       </c>
       <c r="C323">
@@ -4638,7 +4638,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C324">
@@ -4651,7 +4651,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>VALLE DE GUADALUPE</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C325">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>VILLA GUERRERO</t>
+          <t>Villa Guerrero</t>
         </is>
       </c>
       <c r="C326">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>ZAPOPAN</t>
+          <t>Zapopan</t>
         </is>
       </c>
       <c r="C327">
@@ -4690,7 +4690,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C328">
@@ -4703,12 +4703,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>ANGANGUEO</t>
+          <t>Angangueo</t>
         </is>
       </c>
       <c r="C329">
@@ -4721,7 +4721,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>APATZINGÁN</t>
+          <t>Apatzingán</t>
         </is>
       </c>
       <c r="C330">
@@ -4734,7 +4734,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>ARIO</t>
+          <t>Ario</t>
         </is>
       </c>
       <c r="C331">
@@ -4747,7 +4747,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>BUENAVISTA</t>
+          <t>Buenavista</t>
         </is>
       </c>
       <c r="C332">
@@ -4760,7 +4760,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>CHERÁN</t>
+          <t>Cherán</t>
         </is>
       </c>
       <c r="C333">
@@ -4773,7 +4773,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>COALCOMÁN DE VÁZQUEZ PALLARES</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C334">
@@ -4786,7 +4786,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>CONTEPEC</t>
+          <t>Contepec</t>
         </is>
       </c>
       <c r="C335">
@@ -4799,7 +4799,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>ECUANDUREO</t>
+          <t>Ecuandureo</t>
         </is>
       </c>
       <c r="C336">
@@ -4812,7 +4812,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>EPITACIO HUERTA</t>
+          <t>Epitacio Huerta</t>
         </is>
       </c>
       <c r="C337">
@@ -4825,7 +4825,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C338">
@@ -4838,7 +4838,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>HUANIQUEO</t>
+          <t>Huaniqueo</t>
         </is>
       </c>
       <c r="C339">
@@ -4851,7 +4851,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>HUETAMO</t>
+          <t>Huetamo</t>
         </is>
       </c>
       <c r="C340">
@@ -4864,7 +4864,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>JUNGAPEO</t>
+          <t>Jungapeo</t>
         </is>
       </c>
       <c r="C341">
@@ -4877,7 +4877,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>LA HUACANA</t>
+          <t>La Huacana</t>
         </is>
       </c>
       <c r="C342">
@@ -4890,7 +4890,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>LA PIEDAD</t>
+          <t>La Piedad</t>
         </is>
       </c>
       <c r="C343">
@@ -4903,7 +4903,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>LOS REYES</t>
+          <t>Los Reyes</t>
         </is>
       </c>
       <c r="C344">
@@ -4916,7 +4916,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>LÁZARO CÁRDENAS</t>
+          <t>Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C345">
@@ -4929,7 +4929,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>MADERO</t>
+          <t>Madero</t>
         </is>
       </c>
       <c r="C346">
@@ -4942,7 +4942,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>MARAVATÍO</t>
+          <t>Maravatío</t>
         </is>
       </c>
       <c r="C347">
@@ -4955,7 +4955,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C348">
@@ -4968,7 +4968,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>MÚGICA</t>
+          <t>Múgica</t>
         </is>
       </c>
       <c r="C349">
@@ -4981,7 +4981,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>NAHUATZEN</t>
+          <t>Nahuatzen</t>
         </is>
       </c>
       <c r="C350">
@@ -4994,7 +4994,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>NOCUPÉTARO</t>
+          <t>Nocupétaro</t>
         </is>
       </c>
       <c r="C351">
@@ -5007,7 +5007,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C352">
@@ -5020,7 +5020,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>PARACHO</t>
+          <t>Paracho</t>
         </is>
       </c>
       <c r="C353">
@@ -5033,7 +5033,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>PURUÁNDIRO</t>
+          <t>Puruándiro</t>
         </is>
       </c>
       <c r="C354">
@@ -5046,7 +5046,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>PÁTZCUARO</t>
+          <t>Pátzcuaro</t>
         </is>
       </c>
       <c r="C355">
@@ -5059,7 +5059,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>SAHUAYO</t>
+          <t>Sahuayo</t>
         </is>
       </c>
       <c r="C356">
@@ -5072,7 +5072,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>TANCÍTARO</t>
+          <t>Tancítaro</t>
         </is>
       </c>
       <c r="C357">
@@ -5085,7 +5085,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>TANGAMANDAPIO</t>
+          <t>Tangamandapio</t>
         </is>
       </c>
       <c r="C358">
@@ -5098,7 +5098,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>TEPALCATEPEC</t>
+          <t>Tepalcatepec</t>
         </is>
       </c>
       <c r="C359">
@@ -5111,7 +5111,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>TLALPUJAHUA</t>
+          <t>Tlalpujahua</t>
         </is>
       </c>
       <c r="C360">
@@ -5124,7 +5124,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>TUMBISCATÍO</t>
+          <t>Tumbiscatío</t>
         </is>
       </c>
       <c r="C361">
@@ -5137,7 +5137,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C362">
@@ -5150,7 +5150,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>TUZANTLA</t>
+          <t>Tuzantla</t>
         </is>
       </c>
       <c r="C363">
@@ -5163,7 +5163,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>TZITZIO</t>
+          <t>Tzitzio</t>
         </is>
       </c>
       <c r="C364">
@@ -5176,7 +5176,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>URUAPAN</t>
+          <t>Uruapan</t>
         </is>
       </c>
       <c r="C365">
@@ -5189,7 +5189,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C366">
@@ -5202,7 +5202,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>VISTA HERMOSA</t>
+          <t>Vista Hermosa</t>
         </is>
       </c>
       <c r="C367">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>YURÉCUARO</t>
+          <t>Yurécuaro</t>
         </is>
       </c>
       <c r="C368">
@@ -5228,7 +5228,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>ZAMORA</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="C369">
@@ -5241,7 +5241,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>ZITÁCUARO</t>
+          <t>Zitácuaro</t>
         </is>
       </c>
       <c r="C370">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C371">
@@ -5267,12 +5267,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C372">
@@ -5285,7 +5285,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>CUERNAVACA</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C373">
@@ -5298,7 +5298,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>JIUTEPEC</t>
+          <t>Jiutepec</t>
         </is>
       </c>
       <c r="C374">
@@ -5311,7 +5311,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>MIACATLÁN</t>
+          <t>Miacatlán</t>
         </is>
       </c>
       <c r="C375">
@@ -5324,7 +5324,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>TETECALA</t>
+          <t>Tetecala</t>
         </is>
       </c>
       <c r="C376">
@@ -5337,7 +5337,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>TETELA DEL VOLCÁN</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C377">
@@ -5350,7 +5350,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>YECAPIXTLA</t>
+          <t>Yecapixtla</t>
         </is>
       </c>
       <c r="C378">
@@ -5363,7 +5363,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C379">
@@ -5376,12 +5376,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>COMPOSTELA</t>
+          <t>Compostela</t>
         </is>
       </c>
       <c r="C380">
@@ -5394,7 +5394,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>IXTLÁN DEL RÍO</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C381">
@@ -5407,7 +5407,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>LA YESCA</t>
+          <t>La Yesca</t>
         </is>
       </c>
       <c r="C382">
@@ -5420,7 +5420,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>TECUALA</t>
+          <t>Tecuala</t>
         </is>
       </c>
       <c r="C383">
@@ -5433,7 +5433,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>TEPIC</t>
+          <t>Tepic</t>
         </is>
       </c>
       <c r="C384">
@@ -5446,7 +5446,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C385">
@@ -5459,12 +5459,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>ALLENDE</t>
+          <t>Allende</t>
         </is>
       </c>
       <c r="C386">
@@ -5477,7 +5477,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>ARAMBERRI</t>
+          <t>Aramberri</t>
         </is>
       </c>
       <c r="C387">
@@ -5490,7 +5490,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>CADEREYTA JIMÉNEZ</t>
+          <t>Cadereyta Jiménez</t>
         </is>
       </c>
       <c r="C388">
@@ -5503,7 +5503,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>DOCTOR ARROYO</t>
+          <t>Doctor Arroyo</t>
         </is>
       </c>
       <c r="C389">
@@ -5516,7 +5516,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C390">
@@ -5529,7 +5529,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>LINARES</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="C391">
@@ -5542,7 +5542,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>MIER Y NORIEGA</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C392">
@@ -5555,7 +5555,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>MONTERREY</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="C393">
@@ -5568,7 +5568,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>SAN PEDRO GARZA GARCÍA</t>
+          <t>San Pedro Garza García</t>
         </is>
       </c>
       <c r="C394">
@@ -5581,7 +5581,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C395">
@@ -5594,12 +5594,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>ACATLÁN DE PÉREZ FIGUEROA</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C396">
@@ -5612,7 +5612,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>ASUNCIÓN IXTALTEPEC</t>
+          <t>Asunción Ixtaltepec</t>
         </is>
       </c>
       <c r="C397">
@@ -5625,7 +5625,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>CANDELARIA LOXICHA</t>
+          <t>Candelaria Loxicha</t>
         </is>
       </c>
       <c r="C398">
@@ -5638,7 +5638,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>COICOYÁN DE LAS FLORES</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C399">
@@ -5651,7 +5651,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>COSOLAPA</t>
+          <t>Cosolapa</t>
         </is>
       </c>
       <c r="C400">
@@ -5664,7 +5664,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>CUYAMECALCO VILLA DE ZARAGOZA</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C401">
@@ -5677,7 +5677,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE EJUTLA DE CRESPO</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C402">
@@ -5690,7 +5690,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE TLAXIACO</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C403">
@@ -5703,7 +5703,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>HUAJUAPAN DE LEÓN</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C404">
@@ -5716,7 +5716,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>IXTLÁN DE JUÁREZ</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C405">
@@ -5729,7 +5729,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>MATÍAS ROMERO AVENDAÑO</t>
+          <t>Matías Romero Avendaño</t>
         </is>
       </c>
       <c r="C406">
@@ -5742,7 +5742,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>MIAHUATLÁN DE PORFIRIO DÍAZ</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C407">
@@ -5755,7 +5755,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>MÁRTIRES DE TACUBAYA</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C408">
@@ -5768,7 +5768,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C409">
@@ -5781,7 +5781,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>OCOTLÁN DE MORELOS</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C410">
@@ -5794,7 +5794,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>PUTLA VILLA DE GUERRERO</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C411">
@@ -5807,7 +5807,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>SALINA CRUZ</t>
+          <t>Salina Cruz</t>
         </is>
       </c>
       <c r="C412">
@@ -5820,7 +5820,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN CHAYUCO</t>
+          <t>San Agustín Chayuco</t>
         </is>
       </c>
       <c r="C413">
@@ -5833,7 +5833,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>SAN FELIPE USILA</t>
+          <t>San Felipe Usila</t>
         </is>
       </c>
       <c r="C414">
@@ -5846,7 +5846,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>SAN JERÓNIMO COATLÁN</t>
+          <t>San Jerónimo Coatlán</t>
         </is>
       </c>
       <c r="C415">
@@ -5859,7 +5859,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>SAN JOSÉ CHILTEPEC</t>
+          <t>San José Chiltepec</t>
         </is>
       </c>
       <c r="C416">
@@ -5872,7 +5872,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TLACOATZINTEPEC</t>
+          <t>San Juan Bautista Tlacoatzintepec</t>
         </is>
       </c>
       <c r="C417">
@@ -5885,7 +5885,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TUXTEPEC</t>
+          <t>San Juan Bautista Tuxtepec</t>
         </is>
       </c>
       <c r="C418">
@@ -5898,7 +5898,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA VALLE NACIONAL</t>
+          <t>San Juan Bautista Valle Nacional</t>
         </is>
       </c>
       <c r="C419">
@@ -5911,7 +5911,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>SAN JUAN GUICHICOVI</t>
+          <t>San Juan Guichicovi</t>
         </is>
       </c>
       <c r="C420">
@@ -5924,7 +5924,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>SAN JUAN LACHAO</t>
+          <t>San Juan Lachao</t>
         </is>
       </c>
       <c r="C421">
@@ -5937,7 +5937,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>SAN JUAN MAZATLÁN</t>
+          <t>San Juan Mazatlán</t>
         </is>
       </c>
       <c r="C422">
@@ -5950,7 +5950,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>SAN JUAN MIXTEPEC -DTO. 08 -</t>
+          <t>San Juan Mixtepec -Dto. 08 -</t>
         </is>
       </c>
       <c r="C423">
@@ -5963,7 +5963,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>SAN JUAN QUIAHIJE</t>
+          <t>San Juan Quiahije</t>
         </is>
       </c>
       <c r="C424">
@@ -5976,7 +5976,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>SAN JUAN ÑUMÍ</t>
+          <t>San Juan Ñumí</t>
         </is>
       </c>
       <c r="C425">
@@ -5989,7 +5989,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>SAN MATEO YUCUTINDOO</t>
+          <t>San Mateo Yucutindoo</t>
         </is>
       </c>
       <c r="C426">
@@ -6002,7 +6002,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>SAN MIGUEL ACHIUTLA</t>
+          <t>San Miguel Achiutla</t>
         </is>
       </c>
       <c r="C427">
@@ -6015,7 +6015,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>SAN MIGUEL MIXTEPEC</t>
+          <t>San Miguel Mixtepec</t>
         </is>
       </c>
       <c r="C428">
@@ -6028,7 +6028,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>SAN MIGUEL PANIXTLAHUACA</t>
+          <t>San Miguel Panixtlahuaca</t>
         </is>
       </c>
       <c r="C429">
@@ -6041,7 +6041,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>SAN MIGUEL SOYALTEPEC</t>
+          <t>San Miguel Soyaltepec</t>
         </is>
       </c>
       <c r="C430">
@@ -6054,7 +6054,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TILQUIÁPAM</t>
+          <t>San Miguel Tilquiápam</t>
         </is>
       </c>
       <c r="C431">
@@ -6067,7 +6067,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>SAN MIGUEL YOTAO</t>
+          <t>San Miguel Yotao</t>
         </is>
       </c>
       <c r="C432">
@@ -6080,7 +6080,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>SAN PEDRO HUAMELULA</t>
+          <t>San Pedro Huamelula</t>
         </is>
       </c>
       <c r="C433">
@@ -6093,7 +6093,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>SAN PEDRO JALTEPETONGO</t>
+          <t>San Pedro Jaltepetongo</t>
         </is>
       </c>
       <c r="C434">
@@ -6106,7 +6106,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>SAN PEDRO MIXTEPEC -DTO. 22 -</t>
+          <t>San Pedro Mixtepec -Dto. 22 -</t>
         </is>
       </c>
       <c r="C435">
@@ -6119,7 +6119,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>SAN PEDRO POCHUTLA</t>
+          <t>San Pedro Pochutla</t>
         </is>
       </c>
       <c r="C436">
@@ -6132,7 +6132,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>SAN PEDRO SOCHIÁPAM</t>
+          <t>San Pedro Sochiápam</t>
         </is>
       </c>
       <c r="C437">
@@ -6145,7 +6145,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>SAN PEDRO TAVICHE</t>
+          <t>San Pedro Taviche</t>
         </is>
       </c>
       <c r="C438">
@@ -6158,7 +6158,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>SAN PEDRO TEUTILA</t>
+          <t>San Pedro Teutila</t>
         </is>
       </c>
       <c r="C439">
@@ -6171,7 +6171,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>SAN PEDRO TOTOLÁPAM</t>
+          <t>San Pedro Totolápam</t>
         </is>
       </c>
       <c r="C440">
@@ -6184,7 +6184,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>SAN PEDRO YANERI</t>
+          <t>San Pedro Yaneri</t>
         </is>
       </c>
       <c r="C441">
@@ -6197,7 +6197,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>SANTA CATARINA JUQUILA</t>
+          <t>Santa Catarina Juquila</t>
         </is>
       </c>
       <c r="C442">
@@ -6210,7 +6210,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>SANTA CATARINA LOXICHA</t>
+          <t>Santa Catarina Loxicha</t>
         </is>
       </c>
       <c r="C443">
@@ -6223,7 +6223,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>SANTA CATARINA MECHOACÁN</t>
+          <t>Santa Catarina Mechoacán</t>
         </is>
       </c>
       <c r="C444">
@@ -6236,7 +6236,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>SANTA CRUZ ZENZONTEPEC</t>
+          <t>Santa Cruz Zenzontepec</t>
         </is>
       </c>
       <c r="C445">
@@ -6249,7 +6249,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>SANTA INÉS DE ZARAGOZA</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C446">
@@ -6262,7 +6262,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>SANTA INÉS DEL MONTE</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C447">
@@ -6275,7 +6275,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>SANTA MARÍA COLOTEPEC</t>
+          <t>Santa María Colotepec</t>
         </is>
       </c>
       <c r="C448">
@@ -6288,7 +6288,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>SANTA MARÍA HUATULCO</t>
+          <t>Santa María Huatulco</t>
         </is>
       </c>
       <c r="C449">
@@ -6301,7 +6301,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>SANTA MARÍA HUAZOLOTITLÁN</t>
+          <t>Santa María Huazolotitlán</t>
         </is>
       </c>
       <c r="C450">
@@ -6314,7 +6314,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>SANTA MARÍA JACATEPEC</t>
+          <t>Santa María Jacatepec</t>
         </is>
       </c>
       <c r="C451">
@@ -6327,7 +6327,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TEMAXCALTEPEC</t>
+          <t>Santa María Temaxcaltepec</t>
         </is>
       </c>
       <c r="C452">
@@ -6340,7 +6340,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TEOPOXCO</t>
+          <t>Santa María Teopoxco</t>
         </is>
       </c>
       <c r="C453">
@@ -6353,7 +6353,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>SANTA MARÍA XADANI</t>
+          <t>Santa María Xadani</t>
         </is>
       </c>
       <c r="C454">
@@ -6366,7 +6366,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>SANTA MARÍA YOLOTEPEC</t>
+          <t>Santa María Yolotepec</t>
         </is>
       </c>
       <c r="C455">
@@ -6379,7 +6379,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>SANTA MARÍA ZACATEPEC</t>
+          <t>Santa María Zacatepec</t>
         </is>
       </c>
       <c r="C456">
@@ -6392,7 +6392,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>SANTIAGO CHOÁPAM</t>
+          <t>Santiago Choápam</t>
         </is>
       </c>
       <c r="C457">
@@ -6405,7 +6405,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>SANTIAGO JAMILTEPEC</t>
+          <t>Santiago Jamiltepec</t>
         </is>
       </c>
       <c r="C458">
@@ -6418,7 +6418,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>SANTIAGO JOCOTEPEC</t>
+          <t>Santiago Jocotepec</t>
         </is>
       </c>
       <c r="C459">
@@ -6431,7 +6431,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>SANTIAGO JUXTLAHUACA</t>
+          <t>Santiago Juxtlahuaca</t>
         </is>
       </c>
       <c r="C460">
@@ -6444,7 +6444,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>SANTIAGO XIACUÍ</t>
+          <t>Santiago Xiacuí</t>
         </is>
       </c>
       <c r="C461">
@@ -6457,7 +6457,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO PETAPA</t>
+          <t>Santo Domingo Petapa</t>
         </is>
       </c>
       <c r="C462">
@@ -6470,7 +6470,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TEHUANTEPEC</t>
+          <t>Santo Domingo Tehuantepec</t>
         </is>
       </c>
       <c r="C463">
@@ -6483,7 +6483,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TEPUXTEPEC</t>
+          <t>Santo Domingo Tepuxtepec</t>
         </is>
       </c>
       <c r="C464">
@@ -6496,7 +6496,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TONALÁ</t>
+          <t>Santo Domingo Tonalá</t>
         </is>
       </c>
       <c r="C465">
@@ -6509,7 +6509,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO ZANATEPEC</t>
+          <t>Santo Domingo Zanatepec</t>
         </is>
       </c>
       <c r="C466">
@@ -6522,7 +6522,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>SANTOS REYES NOPALA</t>
+          <t>Santos Reyes Nopala</t>
         </is>
       </c>
       <c r="C467">
@@ -6535,7 +6535,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>SANTOS REYES PÁPALO</t>
+          <t>Santos Reyes Pápalo</t>
         </is>
       </c>
       <c r="C468">
@@ -6548,7 +6548,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>SANTOS REYES YUCUNÁ</t>
+          <t>Santos Reyes Yucuná</t>
         </is>
       </c>
       <c r="C469">
@@ -6561,7 +6561,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>TATALTEPEC DE VALDÉS</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C470">
@@ -6574,7 +6574,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>TEOTITLÁN DE FLORES MAGÓN</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C471">
@@ -6587,7 +6587,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>TLACOLULA DE MATAMOROS</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C472">
@@ -6600,7 +6600,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C473">
@@ -6613,7 +6613,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC DE MELCHOR OCAMPO</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C474">
@@ -6626,7 +6626,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>VILLA SOLA DE VEGA</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C475">
@@ -6639,7 +6639,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C476">
@@ -6652,12 +6652,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>ACATZINGO</t>
+          <t>Acatzingo</t>
         </is>
       </c>
       <c r="C477">
@@ -6670,7 +6670,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>AJALPAN</t>
+          <t>Ajalpan</t>
         </is>
       </c>
       <c r="C478">
@@ -6683,7 +6683,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>ATLIXCO</t>
+          <t>Atlixco</t>
         </is>
       </c>
       <c r="C479">
@@ -6696,7 +6696,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>CHIGNAHUAPAN</t>
+          <t>Chignahuapan</t>
         </is>
       </c>
       <c r="C480">
@@ -6709,7 +6709,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>COXCATLÁN</t>
+          <t>Coxcatlán</t>
         </is>
       </c>
       <c r="C481">
@@ -6722,7 +6722,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>CUAYUCA DE ANDRADE</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C482">
@@ -6735,7 +6735,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>CUETZALAN DEL PROGRESO</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C483">
@@ -6748,7 +6748,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>ELOXOCHITLÁN</t>
+          <t>Eloxochitlán</t>
         </is>
       </c>
       <c r="C484">
@@ -6761,7 +6761,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>ESPERANZA</t>
+          <t>Esperanza</t>
         </is>
       </c>
       <c r="C485">
@@ -6774,7 +6774,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>FRANCISCO Z. MENA</t>
+          <t>Francisco Z. Mena</t>
         </is>
       </c>
       <c r="C486">
@@ -6787,7 +6787,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>HERMENEGILDO GALEANA</t>
+          <t>Hermenegildo Galeana</t>
         </is>
       </c>
       <c r="C487">
@@ -6800,7 +6800,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>HUAUCHINANGO</t>
+          <t>Huauchinango</t>
         </is>
       </c>
       <c r="C488">
@@ -6813,7 +6813,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>HUEHUETLÁN EL GRANDE</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C489">
@@ -6826,7 +6826,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>HUEYAPAN</t>
+          <t>Hueyapan</t>
         </is>
       </c>
       <c r="C490">
@@ -6839,7 +6839,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>HUEYTAMALCO</t>
+          <t>Hueytamalco</t>
         </is>
       </c>
       <c r="C491">
@@ -6852,7 +6852,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>HUITZILAN DE SERDÁN</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C492">
@@ -6865,7 +6865,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>IZÚCAR DE MATAMOROS</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C493">
@@ -6878,7 +6878,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>JALPAN</t>
+          <t>Jalpan</t>
         </is>
       </c>
       <c r="C494">
@@ -6891,7 +6891,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>LIBRES</t>
+          <t>Libres</t>
         </is>
       </c>
       <c r="C495">
@@ -6904,7 +6904,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>LOS REYES DE JUÁREZ</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C496">
@@ -6917,7 +6917,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C497">
@@ -6930,7 +6930,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>QUECHOLAC</t>
+          <t>Quecholac</t>
         </is>
       </c>
       <c r="C498">
@@ -6943,7 +6943,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>SAN GABRIEL CHILAC</t>
+          <t>San Gabriel Chilac</t>
         </is>
       </c>
       <c r="C499">
@@ -6956,7 +6956,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TEXMELUCAN</t>
+          <t>San Martín Texmelucan</t>
         </is>
       </c>
       <c r="C500">
@@ -6969,7 +6969,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>SAN PEDRO YELOIXTLAHUACA</t>
+          <t>San Pedro Yeloixtlahuaca</t>
         </is>
       </c>
       <c r="C501">
@@ -6982,7 +6982,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>SAN SALVADOR EL SECO</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C502">
@@ -6995,7 +6995,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>SAN SALVADOR EL VERDE</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C503">
@@ -7008,7 +7008,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>TECAMACHALCO</t>
+          <t>Tecamachalco</t>
         </is>
       </c>
       <c r="C504">
@@ -7021,7 +7021,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>TEHUACÁN</t>
+          <t>Tehuacán</t>
         </is>
       </c>
       <c r="C505">
@@ -7034,7 +7034,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>TETELA DE OCAMPO</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C506">
@@ -7047,7 +7047,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>TEZIUTLÁN</t>
+          <t>Teziutlán</t>
         </is>
       </c>
       <c r="C507">
@@ -7060,7 +7060,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>TLACUILOTEPEC</t>
+          <t>Tlacuilotepec</t>
         </is>
       </c>
       <c r="C508">
@@ -7073,7 +7073,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>TLAOLA</t>
+          <t>Tlaola</t>
         </is>
       </c>
       <c r="C509">
@@ -7086,7 +7086,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>TLAXCO</t>
+          <t>Tlaxco</t>
         </is>
       </c>
       <c r="C510">
@@ -7099,7 +7099,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>TOCHTEPEC</t>
+          <t>Tochtepec</t>
         </is>
       </c>
       <c r="C511">
@@ -7112,7 +7112,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C512">
@@ -7125,7 +7125,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C513">
@@ -7138,7 +7138,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>XAYACATLÁN DE BRAVO</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C514">
@@ -7151,7 +7151,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>XICOTEPEC</t>
+          <t>Xicotepec</t>
         </is>
       </c>
       <c r="C515">
@@ -7164,7 +7164,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>XIUTETELCO</t>
+          <t>Xiutetelco</t>
         </is>
       </c>
       <c r="C516">
@@ -7177,7 +7177,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>XOCHITLÁN TODOS SANTOS</t>
+          <t>Xochitlán Todos Santos</t>
         </is>
       </c>
       <c r="C517">
@@ -7190,7 +7190,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>ZACAPOAXTLA</t>
+          <t>Zacapoaxtla</t>
         </is>
       </c>
       <c r="C518">
@@ -7203,7 +7203,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>ZACATLÁN</t>
+          <t>Zacatlán</t>
         </is>
       </c>
       <c r="C519">
@@ -7216,7 +7216,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>ZOQUITLÁN</t>
+          <t>Zoquitlán</t>
         </is>
       </c>
       <c r="C520">
@@ -7229,7 +7229,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C521">
@@ -7242,12 +7242,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>AMEALCO DE BONFIL</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C522">
@@ -7260,7 +7260,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>ARROYO SECO</t>
+          <t>Arroyo Seco</t>
         </is>
       </c>
       <c r="C523">
@@ -7273,7 +7273,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>CADEREYTA DE MONTES</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C524">
@@ -7286,7 +7286,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>COLÓN</t>
+          <t>Colón</t>
         </is>
       </c>
       <c r="C525">
@@ -7299,7 +7299,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>EL MARQUÉS</t>
+          <t>El Marqués</t>
         </is>
       </c>
       <c r="C526">
@@ -7312,7 +7312,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>EZEQUIEL MONTES</t>
+          <t>Ezequiel Montes</t>
         </is>
       </c>
       <c r="C527">
@@ -7325,7 +7325,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>HUIMILPAN</t>
+          <t>Huimilpan</t>
         </is>
       </c>
       <c r="C528">
@@ -7338,7 +7338,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>JALPAN DE SERRA</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C529">
@@ -7351,7 +7351,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>LANDA DE MATAMOROS</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C530">
@@ -7364,7 +7364,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>PEÑAMILLER</t>
+          <t>Peñamiller</t>
         </is>
       </c>
       <c r="C531">
@@ -7377,7 +7377,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>PINAL DE AMOLES</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C532">
@@ -7390,7 +7390,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C533">
@@ -7403,7 +7403,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>SAN JOAQUÍN</t>
+          <t>San Joaquín</t>
         </is>
       </c>
       <c r="C534">
@@ -7416,7 +7416,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C535">
@@ -7429,7 +7429,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C536">
@@ -7442,12 +7442,12 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>QUINTANA ROO</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C537">
@@ -7460,7 +7460,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>OTHÓN P. BLANCO</t>
+          <t>Othón P. Blanco</t>
         </is>
       </c>
       <c r="C538">
@@ -7473,7 +7473,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C539">
@@ -7486,12 +7486,12 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>AHUALULCO</t>
+          <t>Ahualulco</t>
         </is>
       </c>
       <c r="C540">
@@ -7504,7 +7504,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>ALAQUINES</t>
+          <t>Alaquines</t>
         </is>
       </c>
       <c r="C541">
@@ -7517,7 +7517,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>AQUISMÓN</t>
+          <t>Aquismón</t>
         </is>
       </c>
       <c r="C542">
@@ -7530,7 +7530,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>CERRITOS</t>
+          <t>Cerritos</t>
         </is>
       </c>
       <c r="C543">
@@ -7543,7 +7543,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>CIUDAD DEL MAÍZ</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C544">
@@ -7556,7 +7556,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>CIUDAD FERNÁNDEZ</t>
+          <t>Ciudad Fernández</t>
         </is>
       </c>
       <c r="C545">
@@ -7569,7 +7569,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>CIUDAD VALLES</t>
+          <t>Ciudad Valles</t>
         </is>
       </c>
       <c r="C546">
@@ -7582,7 +7582,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C547">
@@ -7595,7 +7595,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>EBANO</t>
+          <t>Ebano</t>
         </is>
       </c>
       <c r="C548">
@@ -7608,7 +7608,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>EL NARANJO</t>
+          <t>El Naranjo</t>
         </is>
       </c>
       <c r="C549">
@@ -7621,7 +7621,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>MATEHUALA</t>
+          <t>Matehuala</t>
         </is>
       </c>
       <c r="C550">
@@ -7634,7 +7634,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>MOCTEZUMA</t>
+          <t>Moctezuma</t>
         </is>
       </c>
       <c r="C551">
@@ -7647,7 +7647,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>RAYÓN</t>
+          <t>Rayón</t>
         </is>
       </c>
       <c r="C552">
@@ -7660,7 +7660,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>RIOVERDE</t>
+          <t>Rioverde</t>
         </is>
       </c>
       <c r="C553">
@@ -7673,7 +7673,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>SALINAS</t>
+          <t>Salinas</t>
         </is>
       </c>
       <c r="C554">
@@ -7686,7 +7686,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>SAN CIRO DE ACOSTA</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C555">
@@ -7699,7 +7699,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C556">
@@ -7712,7 +7712,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS TOLENTINO</t>
+          <t>San Nicolás Tolentino</t>
         </is>
       </c>
       <c r="C557">
@@ -7725,7 +7725,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>SAN VICENTE TANCUAYALAB</t>
+          <t>San Vicente Tancuayalab</t>
         </is>
       </c>
       <c r="C558">
@@ -7738,7 +7738,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>SANTA CATARINA</t>
+          <t>Santa Catarina</t>
         </is>
       </c>
       <c r="C559">
@@ -7751,7 +7751,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DEL RÍO</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C560">
@@ -7764,7 +7764,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>TAMASOPO</t>
+          <t>Tamasopo</t>
         </is>
       </c>
       <c r="C561">
@@ -7777,7 +7777,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>TAMAZUNCHALE</t>
+          <t>Tamazunchale</t>
         </is>
       </c>
       <c r="C562">
@@ -7790,7 +7790,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>TAMUÍN</t>
+          <t>Tamuín</t>
         </is>
       </c>
       <c r="C563">
@@ -7803,7 +7803,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>TANLAJÁS</t>
+          <t>Tanlajás</t>
         </is>
       </c>
       <c r="C564">
@@ -7816,7 +7816,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>TANQUIÁN DE ESCOBEDO</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C565">
@@ -7829,7 +7829,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>TIERRA NUEVA</t>
+          <t>Tierra Nueva</t>
         </is>
       </c>
       <c r="C566">
@@ -7842,7 +7842,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>VILLA DE ARRIAGA</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C567">
@@ -7855,7 +7855,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>VILLA DE RAMOS</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C568">
@@ -7868,7 +7868,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>VILLA JUÁREZ</t>
+          <t>Villa Juárez</t>
         </is>
       </c>
       <c r="C569">
@@ -7881,7 +7881,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>XILITLA</t>
+          <t>Xilitla</t>
         </is>
       </c>
       <c r="C570">
@@ -7894,7 +7894,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C571">
@@ -7907,12 +7907,12 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>AHOME</t>
+          <t>Ahome</t>
         </is>
       </c>
       <c r="C572">
@@ -7925,7 +7925,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>CULIACÁN</t>
+          <t>Culiacán</t>
         </is>
       </c>
       <c r="C573">
@@ -7938,7 +7938,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>ELOTA</t>
+          <t>Elota</t>
         </is>
       </c>
       <c r="C574">
@@ -7951,7 +7951,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>MAZATLÁN</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="C575">
@@ -7964,7 +7964,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>SALVADOR ALVARADO</t>
+          <t>Salvador Alvarado</t>
         </is>
       </c>
       <c r="C576">
@@ -7977,7 +7977,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="C577">
@@ -7990,7 +7990,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C578">
@@ -8003,12 +8003,12 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>CABORCA</t>
+          <t>Caborca</t>
         </is>
       </c>
       <c r="C579">
@@ -8021,7 +8021,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>CAJEME</t>
+          <t>Cajeme</t>
         </is>
       </c>
       <c r="C580">
@@ -8034,7 +8034,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>HERMOSILLO</t>
+          <t>Hermosillo</t>
         </is>
       </c>
       <c r="C581">
@@ -8047,7 +8047,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>NOGALES</t>
+          <t>Nogales</t>
         </is>
       </c>
       <c r="C582">
@@ -8060,7 +8060,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>PUERTO PEÑASCO</t>
+          <t>Puerto Peñasco</t>
         </is>
       </c>
       <c r="C583">
@@ -8073,7 +8073,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C584">
@@ -8086,12 +8086,12 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>BALANCÁN</t>
+          <t>Balancán</t>
         </is>
       </c>
       <c r="C585">
@@ -8104,7 +8104,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="C586">
@@ -8117,7 +8117,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>COMALCALCO</t>
+          <t>Comalcalco</t>
         </is>
       </c>
       <c r="C587">
@@ -8130,7 +8130,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>CUNDUACÁN</t>
+          <t>Cunduacán</t>
         </is>
       </c>
       <c r="C588">
@@ -8143,7 +8143,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C589">
@@ -8156,7 +8156,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>HUIMANGUILLO</t>
+          <t>Huimanguillo</t>
         </is>
       </c>
       <c r="C590">
@@ -8169,7 +8169,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>JALAPA</t>
+          <t>Jalapa</t>
         </is>
       </c>
       <c r="C591">
@@ -8182,7 +8182,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>MACUSPANA</t>
+          <t>Macuspana</t>
         </is>
       </c>
       <c r="C592">
@@ -8195,7 +8195,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>TACOTALPA</t>
+          <t>Tacotalpa</t>
         </is>
       </c>
       <c r="C593">
@@ -8208,7 +8208,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>TENOSIQUE</t>
+          <t>Tenosique</t>
         </is>
       </c>
       <c r="C594">
@@ -8221,7 +8221,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C595">
@@ -8234,12 +8234,12 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>ALTAMIRA</t>
+          <t>Altamira</t>
         </is>
       </c>
       <c r="C596">
@@ -8252,7 +8252,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>BUSTAMANTE</t>
+          <t>Bustamante</t>
         </is>
       </c>
       <c r="C597">
@@ -8265,7 +8265,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>CASAS</t>
+          <t>Casas</t>
         </is>
       </c>
       <c r="C598">
@@ -8278,7 +8278,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>CIUDAD MADERO</t>
+          <t>Ciudad Madero</t>
         </is>
       </c>
       <c r="C599">
@@ -8291,7 +8291,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>EL MANTE</t>
+          <t>El Mante</t>
         </is>
       </c>
       <c r="C600">
@@ -8304,7 +8304,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>GONZÁLEZ</t>
+          <t>González</t>
         </is>
       </c>
       <c r="C601">
@@ -8317,7 +8317,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>GUSTAVO DÍAZ ORDAZ</t>
+          <t>Gustavo Díaz Ordaz</t>
         </is>
       </c>
       <c r="C602">
@@ -8330,7 +8330,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C603">
@@ -8343,7 +8343,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>JIMÉNEZ</t>
+          <t>Jiménez</t>
         </is>
       </c>
       <c r="C604">
@@ -8356,7 +8356,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C605">
@@ -8369,7 +8369,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>NUEVO LAREDO</t>
+          <t>Nuevo Laredo</t>
         </is>
       </c>
       <c r="C606">
@@ -8382,7 +8382,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>NUEVO MORELOS</t>
+          <t>Nuevo Morelos</t>
         </is>
       </c>
       <c r="C607">
@@ -8395,7 +8395,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C608">
@@ -8408,7 +8408,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>REYNOSA</t>
+          <t>Reynosa</t>
         </is>
       </c>
       <c r="C609">
@@ -8421,7 +8421,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>RÍO BRAVO</t>
+          <t>Río Bravo</t>
         </is>
       </c>
       <c r="C610">
@@ -8434,7 +8434,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>SAN FERNANDO</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="C611">
@@ -8447,7 +8447,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>SOTO LA MARINA</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C612">
@@ -8460,7 +8460,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>TAMPICO</t>
+          <t>Tampico</t>
         </is>
       </c>
       <c r="C613">
@@ -8473,7 +8473,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>TULA</t>
+          <t>Tula</t>
         </is>
       </c>
       <c r="C614">
@@ -8486,7 +8486,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>VALLE HERMOSO</t>
+          <t>Valle Hermoso</t>
         </is>
       </c>
       <c r="C615">
@@ -8499,7 +8499,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>VICTORIA</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C616">
@@ -8512,7 +8512,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C617">
@@ -8525,12 +8525,12 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>APIZACO</t>
+          <t>Apizaco</t>
         </is>
       </c>
       <c r="C618">
@@ -8543,7 +8543,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>CHIAUTEMPAN</t>
+          <t>Chiautempan</t>
         </is>
       </c>
       <c r="C619">
@@ -8556,7 +8556,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>SANTA CRUZ TLAXCALA</t>
+          <t>Santa Cruz Tlaxcala</t>
         </is>
       </c>
       <c r="C620">
@@ -8569,7 +8569,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>Tenancingo</t>
         </is>
       </c>
       <c r="C621">
@@ -8582,7 +8582,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>TERRENATE</t>
+          <t>Terrenate</t>
         </is>
       </c>
       <c r="C622">
@@ -8595,7 +8595,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C623">
@@ -8608,7 +8608,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C624">
@@ -8621,12 +8621,12 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>ACAJETE</t>
+          <t>Acajete</t>
         </is>
       </c>
       <c r="C625">
@@ -8639,7 +8639,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>ACAYUCAN</t>
+          <t>Acayucan</t>
         </is>
       </c>
       <c r="C626">
@@ -8652,7 +8652,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C627">
@@ -8665,7 +8665,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>ACULA</t>
+          <t>Acula</t>
         </is>
       </c>
       <c r="C628">
@@ -8678,7 +8678,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>ALPATLÁHUAC</t>
+          <t>Alpatláhuac</t>
         </is>
       </c>
       <c r="C629">
@@ -8691,7 +8691,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>ALTOTONGA</t>
+          <t>Altotonga</t>
         </is>
       </c>
       <c r="C630">
@@ -8704,7 +8704,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>ALVARADO</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="C631">
@@ -8717,7 +8717,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>AMATITLÁN</t>
+          <t>Amatitlán</t>
         </is>
       </c>
       <c r="C632">
@@ -8730,7 +8730,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>AMATLÁN DE LOS REYES</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C633">
@@ -8743,7 +8743,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>ASTACINGA</t>
+          <t>Astacinga</t>
         </is>
       </c>
       <c r="C634">
@@ -8756,7 +8756,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>ATLAHUILCO</t>
+          <t>Atlahuilco</t>
         </is>
       </c>
       <c r="C635">
@@ -8769,7 +8769,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>ATOYAC</t>
+          <t>Atoyac</t>
         </is>
       </c>
       <c r="C636">
@@ -8782,7 +8782,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>ATZALAN</t>
+          <t>Atzalan</t>
         </is>
       </c>
       <c r="C637">
@@ -8795,7 +8795,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C638">
@@ -8808,7 +8808,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>BOCA DEL RÍO</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C639">
@@ -8821,7 +8821,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>CALCAHUALCO</t>
+          <t>Calcahualco</t>
         </is>
       </c>
       <c r="C640">
@@ -8834,7 +8834,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>CARRILLO PUERTO</t>
+          <t>Carrillo Puerto</t>
         </is>
       </c>
       <c r="C641">
@@ -8847,7 +8847,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>CASTILLO DE TEAYO</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C642">
@@ -8860,7 +8860,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>CATEMACO</t>
+          <t>Catemaco</t>
         </is>
       </c>
       <c r="C643">
@@ -8873,7 +8873,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>CHICONTEPEC</t>
+          <t>Chicontepec</t>
         </is>
       </c>
       <c r="C644">
@@ -8886,7 +8886,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>CHINAMECA</t>
+          <t>Chinameca</t>
         </is>
       </c>
       <c r="C645">
@@ -8899,7 +8899,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>COATEPEC</t>
+          <t>Coatepec</t>
         </is>
       </c>
       <c r="C646">
@@ -8912,7 +8912,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>COATZACOALCOS</t>
+          <t>Coatzacoalcos</t>
         </is>
       </c>
       <c r="C647">
@@ -8925,7 +8925,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>COLIPA</t>
+          <t>Colipa</t>
         </is>
       </c>
       <c r="C648">
@@ -8938,7 +8938,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>COSAMALOAPAN DE CARPIO</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C649">
@@ -8951,7 +8951,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>COSCOMATEPEC</t>
+          <t>Coscomatepec</t>
         </is>
       </c>
       <c r="C650">
@@ -8964,7 +8964,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>COTAXTLA</t>
+          <t>Cotaxtla</t>
         </is>
       </c>
       <c r="C651">
@@ -8977,7 +8977,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>COXQUIHUI</t>
+          <t>Coxquihui</t>
         </is>
       </c>
       <c r="C652">
@@ -8990,7 +8990,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>COYUTLA</t>
+          <t>Coyutla</t>
         </is>
       </c>
       <c r="C653">
@@ -9003,7 +9003,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>CUICHAPA</t>
+          <t>Cuichapa</t>
         </is>
       </c>
       <c r="C654">
@@ -9016,7 +9016,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>CUITLÁHUAC</t>
+          <t>Cuitláhuac</t>
         </is>
       </c>
       <c r="C655">
@@ -9029,7 +9029,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>CÓRDOBA</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="C656">
@@ -9042,7 +9042,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>HIDALGOTITLÁN</t>
+          <t>Hidalgotitlán</t>
         </is>
       </c>
       <c r="C657">
@@ -9055,7 +9055,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
+          <t>Huatusco</t>
         </is>
       </c>
       <c r="C658">
@@ -9068,7 +9068,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>HUEYAPAN DE OCAMPO</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C659">
@@ -9081,7 +9081,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>IGNACIO DE LA LLAVE</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C660">
@@ -9094,7 +9094,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>ISLA</t>
+          <t>Isla</t>
         </is>
       </c>
       <c r="C661">
@@ -9107,7 +9107,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>IXMATLAHUACAN</t>
+          <t>Ixmatlahuacan</t>
         </is>
       </c>
       <c r="C662">
@@ -9120,7 +9120,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>JALACINGO</t>
+          <t>Jalacingo</t>
         </is>
       </c>
       <c r="C663">
@@ -9133,7 +9133,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>JESÚS CARRANZA</t>
+          <t>Jesús Carranza</t>
         </is>
       </c>
       <c r="C664">
@@ -9146,7 +9146,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>JOSÉ AZUETA</t>
+          <t>José Azueta</t>
         </is>
       </c>
       <c r="C665">
@@ -9159,7 +9159,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>JUAN RODRÍGUEZ CLARA</t>
+          <t>Juan Rodríguez Clara</t>
         </is>
       </c>
       <c r="C666">
@@ -9172,7 +9172,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>LA ANTIGUA</t>
+          <t>La Antigua</t>
         </is>
       </c>
       <c r="C667">
@@ -9185,7 +9185,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>LAS CHOAPAS</t>
+          <t>Las Choapas</t>
         </is>
       </c>
       <c r="C668">
@@ -9198,7 +9198,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>LAS MINAS</t>
+          <t>Las Minas</t>
         </is>
       </c>
       <c r="C669">
@@ -9211,7 +9211,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>LERDO DE TEJADA</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C670">
@@ -9224,7 +9224,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>MARTÍNEZ DE LA TORRE</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C671">
@@ -9237,7 +9237,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>MECAYAPAN</t>
+          <t>Mecayapan</t>
         </is>
       </c>
       <c r="C672">
@@ -9250,7 +9250,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>MEDELLÍN</t>
+          <t>Medellín</t>
         </is>
       </c>
       <c r="C673">
@@ -9263,7 +9263,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C674">
@@ -9276,7 +9276,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>MISANTLA</t>
+          <t>Misantla</t>
         </is>
       </c>
       <c r="C675">
@@ -9289,7 +9289,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>MOLOACÁN</t>
+          <t>Moloacán</t>
         </is>
       </c>
       <c r="C676">
@@ -9302,7 +9302,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>OMEALCA</t>
+          <t>Omealca</t>
         </is>
       </c>
       <c r="C677">
@@ -9315,7 +9315,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>ORIZABA</t>
+          <t>Orizaba</t>
         </is>
       </c>
       <c r="C678">
@@ -9328,7 +9328,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>PAPANTLA</t>
+          <t>Papantla</t>
         </is>
       </c>
       <c r="C679">
@@ -9341,7 +9341,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>PASO DE OVEJAS</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C680">
@@ -9354,7 +9354,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>PASO DEL MACHO</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C681">
@@ -9367,7 +9367,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>PEROTE</t>
+          <t>Perote</t>
         </is>
       </c>
       <c r="C682">
@@ -9380,7 +9380,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>PLATÓN SÁNCHEZ</t>
+          <t>Platón Sánchez</t>
         </is>
       </c>
       <c r="C683">
@@ -9393,7 +9393,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>PLAYA VICENTE</t>
+          <t>Playa Vicente</t>
         </is>
       </c>
       <c r="C684">
@@ -9406,7 +9406,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>POZA RICA DE HIDALGO</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C685">
@@ -9419,7 +9419,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>PUENTE NACIONAL</t>
+          <t>Puente Nacional</t>
         </is>
       </c>
       <c r="C686">
@@ -9432,7 +9432,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>PÁNUCO</t>
+          <t>Pánuco</t>
         </is>
       </c>
       <c r="C687">
@@ -9445,7 +9445,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>RÍO BLANCO</t>
+          <t>Río Blanco</t>
         </is>
       </c>
       <c r="C688">
@@ -9458,7 +9458,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TUXTLA</t>
+          <t>San Andrés Tuxtla</t>
         </is>
       </c>
       <c r="C689">
@@ -9471,7 +9471,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>SAN JUAN EVANGELISTA</t>
+          <t>San Juan Evangelista</t>
         </is>
       </c>
       <c r="C690">
@@ -9484,7 +9484,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>SANTIAGO TUXTLA</t>
+          <t>Santiago Tuxtla</t>
         </is>
       </c>
       <c r="C691">
@@ -9497,7 +9497,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>SAYULA DE ALEMÁN</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C692">
@@ -9510,7 +9510,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>SOLEDAD DE DOBLADO</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C693">
@@ -9523,7 +9523,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>SOTEAPAN</t>
+          <t>Soteapan</t>
         </is>
       </c>
       <c r="C694">
@@ -9536,7 +9536,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>TATAHUICAPAN DE JUÁREZ</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C695">
@@ -9549,7 +9549,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>TEHUIPANGO</t>
+          <t>Tehuipango</t>
         </is>
       </c>
       <c r="C696">
@@ -9562,7 +9562,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>TEMPOAL</t>
+          <t>Tempoal</t>
         </is>
       </c>
       <c r="C697">
@@ -9575,7 +9575,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>TEOCELO</t>
+          <t>Teocelo</t>
         </is>
       </c>
       <c r="C698">
@@ -9588,7 +9588,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>TEXISTEPEC</t>
+          <t>Texistepec</t>
         </is>
       </c>
       <c r="C699">
@@ -9601,7 +9601,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>TEZONAPA</t>
+          <t>Tezonapa</t>
         </is>
       </c>
       <c r="C700">
@@ -9614,7 +9614,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C701">
@@ -9627,7 +9627,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>TIHUATLÁN</t>
+          <t>Tihuatlán</t>
         </is>
       </c>
       <c r="C702">
@@ -9640,7 +9640,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>TLACOTALPAN</t>
+          <t>Tlacotalpan</t>
         </is>
       </c>
       <c r="C703">
@@ -9653,7 +9653,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>TLALIXCOYAN</t>
+          <t>Tlalixcoyan</t>
         </is>
       </c>
       <c r="C704">
@@ -9666,7 +9666,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>TLAPACOYAN</t>
+          <t>Tlapacoyan</t>
         </is>
       </c>
       <c r="C705">
@@ -9679,7 +9679,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>TOMATLÁN</t>
+          <t>Tomatlán</t>
         </is>
       </c>
       <c r="C706">
@@ -9692,7 +9692,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C707">
@@ -9705,7 +9705,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>URSULO GALVÁN</t>
+          <t>Ursulo Galván</t>
         </is>
       </c>
       <c r="C708">
@@ -9718,7 +9718,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>UXPANAPA</t>
+          <t>Uxpanapa</t>
         </is>
       </c>
       <c r="C709">
@@ -9731,7 +9731,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>VEGA DE ALATORRE</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C710">
@@ -9744,7 +9744,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C711">
@@ -9757,7 +9757,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>XALAPA</t>
+          <t>Xalapa</t>
         </is>
       </c>
       <c r="C712">
@@ -9770,7 +9770,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>YANGA</t>
+          <t>Yanga</t>
         </is>
       </c>
       <c r="C713">
@@ -9783,7 +9783,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>ZONGOLICA</t>
+          <t>Zongolica</t>
         </is>
       </c>
       <c r="C714">
@@ -9796,7 +9796,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>ÁLAMO TEMAPACHE</t>
+          <t>Álamo Temapache</t>
         </is>
       </c>
       <c r="C715">
@@ -9809,7 +9809,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C716">
@@ -9822,12 +9822,12 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="C717">
@@ -9840,7 +9840,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C718">
@@ -9853,12 +9853,12 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>CAÑITAS DE FELIPE PESCADOR</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C719">
@@ -9871,7 +9871,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>FRESNILLO</t>
+          <t>Fresnillo</t>
         </is>
       </c>
       <c r="C720">
@@ -9884,7 +9884,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>GENERAL FRANCISCO R. MURGUÍA</t>
+          <t>General Francisco R. Murguía</t>
         </is>
       </c>
       <c r="C721">
@@ -9897,7 +9897,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>GENERAL PÁNFILO NATERA</t>
+          <t>General Pánfilo Natera</t>
         </is>
       </c>
       <c r="C722">
@@ -9910,7 +9910,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C723">
@@ -9923,7 +9923,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>HUANUSCO</t>
+          <t>Huanusco</t>
         </is>
       </c>
       <c r="C724">
@@ -9936,7 +9936,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>JALPA</t>
+          <t>Jalpa</t>
         </is>
       </c>
       <c r="C725">
@@ -9949,7 +9949,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>JEREZ</t>
+          <t>Jerez</t>
         </is>
       </c>
       <c r="C726">
@@ -9962,7 +9962,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>OJOCALIENTE</t>
+          <t>Ojocaliente</t>
         </is>
       </c>
       <c r="C727">
@@ -9975,7 +9975,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>PINOS</t>
+          <t>Pinos</t>
         </is>
       </c>
       <c r="C728">
@@ -9988,7 +9988,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>RÍO GRANDE</t>
+          <t>Río Grande</t>
         </is>
       </c>
       <c r="C729">
@@ -10001,7 +10001,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>SAIN ALTO</t>
+          <t>Sain Alto</t>
         </is>
       </c>
       <c r="C730">
@@ -10014,7 +10014,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>SOMBRERETE</t>
+          <t>Sombrerete</t>
         </is>
       </c>
       <c r="C731">
@@ -10027,7 +10027,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>VALPARAÍSO</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="C732">
@@ -10040,7 +10040,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>VILLA DE COS</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C733">
@@ -10053,7 +10053,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C734">
@@ -10066,7 +10066,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>VILLANUEVA</t>
+          <t>Villanueva</t>
         </is>
       </c>
       <c r="C735">
@@ -10079,7 +10079,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="C736">
@@ -10092,7 +10092,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C737">
@@ -10105,7 +10105,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C738">
@@ -10113,41 +10113,6 @@
       </c>
       <c r="D738">
         <v>1</v>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/MISSISSIPPI_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/MISSISSIPPI_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Asientos</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Pabellón De Arteaga</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -463,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Tepezalá</t>
@@ -476,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Escárcega</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Hopelchén</t>
@@ -616,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Benemérito De Las Américas</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Bochil</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Chiapa De Corzo</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Chicoasén</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Chicomuselo</t>
@@ -790,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Cintalapa</t>
@@ -803,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -816,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -829,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -842,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -855,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -868,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Huitiupán</t>
@@ -881,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -894,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -907,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>La Independencia</t>
@@ -920,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -933,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -946,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -959,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Marqués De Comillas</t>
@@ -972,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Mazatán</t>
@@ -985,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -998,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -1011,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Ocotepec</t>
@@ -1024,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Ocozocoautla De Espinosa</t>
@@ -1037,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Ostuacán</t>
@@ -1050,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -1063,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Pantelhó</t>
@@ -1076,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -1089,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Pichucalco</t>
@@ -1102,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -1115,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Pueblo Nuevo Solistahuacán</t>
@@ -1128,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Reforma</t>
@@ -1141,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Sabanilla</t>
@@ -1154,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -1167,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>San Juan Cancuc</t>
@@ -1180,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -1193,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Simojovel</t>
@@ -1206,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Sitalá</t>
@@ -1219,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Socoltenango</t>
@@ -1232,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -1245,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -1258,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Tapalapa</t>
@@ -1271,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Tapilula</t>
@@ -1284,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -1297,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -1310,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Teopisca</t>
@@ -1323,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Tila</t>
@@ -1336,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -1349,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Tumbalá</t>
@@ -1362,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -1375,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -1388,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1401,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -1414,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -1427,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Zinacantán</t>
@@ -1440,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1471,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -1484,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1497,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -1510,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Dr. Belisario Domínguez</t>
@@ -1523,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Guachochi</t>
@@ -1536,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -1549,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -1562,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -1575,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -1588,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>San Francisco De Borja</t>
@@ -1601,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1632,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1645,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1658,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1671,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1684,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1697,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1710,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1723,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1736,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -1749,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1762,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1775,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1788,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -1801,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -1814,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1845,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -1858,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -1871,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -1884,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Múzquiz</t>
@@ -1897,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -1910,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -1923,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>San Juan De Sabinas</t>
@@ -1936,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1949,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1962,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1993,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2024,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Cuencamé</t>
@@ -2037,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -2050,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -2063,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -2076,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -2089,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Nombre De Dios</t>
@@ -2102,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>San Pedro Del Gallo</t>
@@ -2115,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Santiago Papasquiaro</t>
@@ -2128,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Tlahualilo</t>
@@ -2141,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2172,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -2185,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Amecameca</t>
@@ -2198,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -2211,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Atlautla</t>
@@ -2224,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Axapusco</t>
@@ -2237,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -2250,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Chiconcuac</t>
@@ -2263,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -2276,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -2289,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Coyotepec</t>
@@ -2302,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -2315,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Cuautitlán Izcalli</t>
@@ -2328,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -2341,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -2354,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Huehuetoca</t>
@@ -2367,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -2380,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -2393,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -2406,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Jilotepec</t>
@@ -2419,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Jiquipilco</t>
@@ -2432,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -2445,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -2458,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -2471,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Otumba</t>
@@ -2484,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -2497,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -2510,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>San José Del Rincón</t>
@@ -2523,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>San Martín De Las Pirámides</t>
@@ -2536,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -2549,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -2562,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -2575,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -2588,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -2601,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Tepetlixpa</t>
@@ -2614,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Timilpan</t>
@@ -2627,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -2640,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -2653,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Tultepec</t>
@@ -2666,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Valle De Chalco Solidaridad</t>
@@ -2679,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Villa Del Carbón</t>
@@ -2692,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -2705,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2736,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -2749,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Apaseo El Grande</t>
@@ -2762,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -2775,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -2788,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -2801,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -2814,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -2827,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -2840,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -2853,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -2866,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -2879,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>León</t>
@@ -2892,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -2905,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -2918,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -2931,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -2944,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>San Diego De La Unión</t>
@@ -2957,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -2970,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -2983,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -2996,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -3009,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>San Miguel De Allende</t>
@@ -3022,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -3035,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Santiago Maravatío</t>
@@ -3048,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -3061,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -3074,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -3087,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -3100,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Villagrán</t>
@@ -3113,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Xichú</t>
@@ -3126,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3157,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Acatepec</t>
@@ -3170,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -3183,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -3196,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -3209,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Atenango Del Río</t>
@@ -3222,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -3235,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -3248,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -3261,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -3274,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -3287,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -3300,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -3313,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -3326,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -3339,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Cuetzala Del Progreso</t>
@@ -3352,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -3365,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -3378,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -3391,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -3404,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -3417,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -3430,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -3443,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Mártir De Cuilapan</t>
@@ -3456,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -3469,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -3482,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Pedro Ascencio Alquisiras</t>
@@ -3495,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -3508,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -3521,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -3534,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -3547,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -3560,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -3573,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -3586,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -3599,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Tlacoapa</t>
@@ -3612,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -3625,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -3638,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -3651,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Xochistlahuaca</t>
@@ -3664,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Zapotitlán Tablas</t>
@@ -3677,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -3690,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -3703,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3734,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Agua Blanca De Iturbide</t>
@@ -3747,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Ajacuba</t>
@@ -3760,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Alfajayucan</t>
@@ -3773,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Apan</t>
@@ -3786,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Cardonal</t>
@@ -3799,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -3812,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Chapulhuacán</t>
@@ -3825,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -3838,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Huazalingo</t>
@@ -3851,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -3864,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -3877,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -3890,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Jacala De Ledezma</t>
@@ -3903,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>La Misión</t>
@@ -3916,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -3929,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -3942,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Nicolás Flores</t>
@@ -3955,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -3968,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Pacula</t>
@@ -3981,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -3994,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -4007,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>San Agustín Tlaxiaca</t>
@@ -4020,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>San Bartolo Tutotepec</t>
@@ -4033,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>San Salvador</t>
@@ -4046,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Santiago De Anaya</t>
@@ -4059,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Tasquillo</t>
@@ -4072,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -4085,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -4098,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Tepehuacán De Guerrero</t>
@@ -4111,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Tepeji Del Río De Ocampo</t>
@@ -4124,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Tezontepec De Aldama</t>
@@ -4137,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Tianguistengo</t>
@@ -4150,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Tlanchinol</t>
@@ -4163,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Tlaxcoapan</t>
@@ -4176,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -4189,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -4202,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Zacualtipán De Ángeles</t>
@@ -4215,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -4228,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4259,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Arandas</t>
@@ -4272,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -4285,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -4298,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Cabo Corrientes</t>
@@ -4311,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -4324,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Cañadas De Obregón</t>
@@ -4337,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Chiquilistlán</t>
@@ -4350,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -4363,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>El Grullo</t>
@@ -4376,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -4389,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Etzatlán</t>
@@ -4402,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -4415,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Hostotipaquillo</t>
@@ -4428,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -4441,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -4454,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Jilotlán De Los Dolores</t>
@@ -4467,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -4480,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -4493,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -4506,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Mezquitic</t>
@@ -4519,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -4532,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -4545,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -4558,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -4571,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -4584,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -4597,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -4610,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -4623,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -4636,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -4649,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Valle De Guadalupe</t>
@@ -4662,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -4675,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -4688,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4719,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -4732,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -4745,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Buenavista</t>
@@ -4758,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Cherán</t>
@@ -4771,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Coalcomán De Vázquez Pallares</t>
@@ -4784,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -4797,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Ecuandureo</t>
@@ -4810,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -4823,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -4836,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Huaniqueo</t>
@@ -4849,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -4862,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -4875,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -4888,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -4901,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -4914,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -4927,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Madero</t>
@@ -4940,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -4953,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -4966,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -4979,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Nahuatzen</t>
@@ -4992,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Nocupétaro</t>
@@ -5005,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -5018,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -5031,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -5044,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -5057,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -5070,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Tancítaro</t>
@@ -5083,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -5096,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -5109,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Tlalpujahua</t>
@@ -5122,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Tumbiscatío</t>
@@ -5135,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -5148,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -5161,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -5174,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -5187,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -5200,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Vista Hermosa</t>
@@ -5213,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Yurécuaro</t>
@@ -5226,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -5239,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -5252,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5283,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -5296,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Jiutepec</t>
@@ -5309,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Miacatlán</t>
@@ -5322,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Tetecala</t>
@@ -5335,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Tetela Del Volcán</t>
@@ -5348,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Yecapixtla</t>
@@ -5361,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5392,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Ixtlán Del Río</t>
@@ -5405,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -5418,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -5431,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -5444,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5475,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>Aramberri</t>
@@ -5488,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Cadereyta Jiménez</t>
@@ -5501,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>Doctor Arroyo</t>
@@ -5514,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -5527,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Linares</t>
@@ -5540,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Mier Y Noriega</t>
@@ -5553,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -5566,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>San Pedro Garza García</t>
@@ -5579,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5610,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Asunción Ixtaltepec</t>
@@ -5623,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>Candelaria Loxicha</t>
@@ -5636,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>Coicoyán De Las Flores</t>
@@ -5649,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -5662,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Cuyamecalco Villa De Zaragoza</t>
@@ -5675,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Ejutla De Crespo</t>
@@ -5688,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -5701,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Huajuapan De León</t>
@@ -5714,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Ixtlán De Juárez</t>
@@ -5727,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -5740,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -5753,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Mártires De Tacubaya</t>
@@ -5766,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -5779,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -5792,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -5805,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -5818,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>San Agustín Chayuco</t>
@@ -5831,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>San Felipe Usila</t>
@@ -5844,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>San Jerónimo Coatlán</t>
@@ -5857,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>San José Chiltepec</t>
@@ -5870,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>San Juan Bautista Tlacoatzintepec</t>
@@ -5883,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -5896,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>San Juan Bautista Valle Nacional</t>
@@ -5909,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>San Juan Guichicovi</t>
@@ -5922,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -5935,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>San Juan Mazatlán</t>
@@ -5948,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>San Juan Mixtepec -Dto. 08 -</t>
@@ -5961,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>San Juan Quiahije</t>
@@ -5974,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>San Juan Ñumí</t>
@@ -5987,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>San Mateo Yucutindoo</t>
@@ -6000,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>San Miguel Achiutla</t>
@@ -6013,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>San Miguel Mixtepec</t>
@@ -6026,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>San Miguel Panixtlahuaca</t>
@@ -6039,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>San Miguel Soyaltepec</t>
@@ -6052,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>San Miguel Tilquiápam</t>
@@ -6065,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>San Miguel Yotao</t>
@@ -6078,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>San Pedro Huamelula</t>
@@ -6091,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>San Pedro Jaltepetongo</t>
@@ -6104,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>San Pedro Mixtepec -Dto. 22 -</t>
@@ -6117,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -6130,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>San Pedro Sochiápam</t>
@@ -6143,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>San Pedro Taviche</t>
@@ -6156,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>San Pedro Teutila</t>
@@ -6169,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>San Pedro Totolápam</t>
@@ -6182,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>San Pedro Yaneri</t>
@@ -6195,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -6208,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Santa Catarina Loxicha</t>
@@ -6221,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Santa Catarina Mechoacán</t>
@@ -6234,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -6247,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Santa Inés De Zaragoza</t>
@@ -6260,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Santa Inés Del Monte</t>
@@ -6273,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Santa María Colotepec</t>
@@ -6286,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Santa María Huatulco</t>
@@ -6299,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Santa María Huazolotitlán</t>
@@ -6312,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Santa María Jacatepec</t>
@@ -6325,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Santa María Temaxcaltepec</t>
@@ -6338,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Santa María Teopoxco</t>
@@ -6351,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Santa María Xadani</t>
@@ -6364,6 +8534,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>Santa María Yolotepec</t>
@@ -6377,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Santa María Zacatepec</t>
@@ -6390,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Santiago Choápam</t>
@@ -6403,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -6416,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -6429,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -6442,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Santiago Xiacuí</t>
@@ -6455,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Santo Domingo Petapa</t>
@@ -6468,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -6481,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Santo Domingo Tepuxtepec</t>
@@ -6494,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Santo Domingo Tonalá</t>
@@ -6507,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Santo Domingo Zanatepec</t>
@@ -6520,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -6533,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Santos Reyes Pápalo</t>
@@ -6546,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Santos Reyes Yucuná</t>
@@ -6559,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Tataltepec De Valdés</t>
@@ -6572,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Teotitlán De Flores Magón</t>
@@ -6585,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -6598,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>Villa De Tututepec</t>
@@ -6611,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -6624,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Villa Sola De Vega</t>
@@ -6637,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6668,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Ajalpan</t>
@@ -6681,6 +8966,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -6694,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -6707,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>Coxcatlán</t>
@@ -6720,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Cuayuca De Andrade</t>
@@ -6733,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Cuetzalan Del Progreso</t>
@@ -6746,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Eloxochitlán</t>
@@ -6759,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Esperanza</t>
@@ -6772,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>Francisco Z. Mena</t>
@@ -6785,6 +9110,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>Hermenegildo Galeana</t>
@@ -6798,6 +9128,11 @@
       </c>
     </row>
     <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -6811,6 +9146,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>Huehuetlán El Grande</t>
@@ -6824,6 +9164,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>Hueyapan</t>
@@ -6837,6 +9182,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -6850,6 +9200,11 @@
       </c>
     </row>
     <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B492" t="inlineStr">
         <is>
           <t>Huitzilan De Serdán</t>
@@ -6863,6 +9218,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -6876,6 +9236,11 @@
       </c>
     </row>
     <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B494" t="inlineStr">
         <is>
           <t>Jalpan</t>
@@ -6889,6 +9254,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -6902,6 +9272,11 @@
       </c>
     </row>
     <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -6915,6 +9290,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -6928,6 +9308,11 @@
       </c>
     </row>
     <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
           <t>Quecholac</t>
@@ -6941,6 +9326,11 @@
       </c>
     </row>
     <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
           <t>San Gabriel Chilac</t>
@@ -6954,6 +9344,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -6967,6 +9362,11 @@
       </c>
     </row>
     <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
           <t>San Pedro Yeloixtlahuaca</t>
@@ -6980,6 +9380,11 @@
       </c>
     </row>
     <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
           <t>San Salvador El Seco</t>
@@ -6993,6 +9398,11 @@
       </c>
     </row>
     <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -7006,6 +9416,11 @@
       </c>
     </row>
     <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -7019,6 +9434,11 @@
       </c>
     </row>
     <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -7032,6 +9452,11 @@
       </c>
     </row>
     <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B506" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -7045,6 +9470,11 @@
       </c>
     </row>
     <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B507" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -7058,6 +9488,11 @@
       </c>
     </row>
     <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B508" t="inlineStr">
         <is>
           <t>Tlacuilotepec</t>
@@ -7071,6 +9506,11 @@
       </c>
     </row>
     <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
           <t>Tlaola</t>
@@ -7084,6 +9524,11 @@
       </c>
     </row>
     <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -7097,6 +9542,11 @@
       </c>
     </row>
     <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
           <t>Tochtepec</t>
@@ -7110,6 +9560,11 @@
       </c>
     </row>
     <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B512" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -7123,6 +9578,11 @@
       </c>
     </row>
     <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B513" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -7136,6 +9596,11 @@
       </c>
     </row>
     <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
           <t>Xayacatlán De Bravo</t>
@@ -7149,6 +9614,11 @@
       </c>
     </row>
     <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -7162,6 +9632,11 @@
       </c>
     </row>
     <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B516" t="inlineStr">
         <is>
           <t>Xiutetelco</t>
@@ -7175,6 +9650,11 @@
       </c>
     </row>
     <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B517" t="inlineStr">
         <is>
           <t>Xochitlán Todos Santos</t>
@@ -7188,6 +9668,11 @@
       </c>
     </row>
     <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B518" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -7201,6 +9686,11 @@
       </c>
     </row>
     <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B519" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -7214,6 +9704,11 @@
       </c>
     </row>
     <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B520" t="inlineStr">
         <is>
           <t>Zoquitlán</t>
@@ -7227,6 +9722,11 @@
       </c>
     </row>
     <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B521" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7258,6 +9758,11 @@
       </c>
     </row>
     <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B523" t="inlineStr">
         <is>
           <t>Arroyo Seco</t>
@@ -7271,6 +9776,11 @@
       </c>
     </row>
     <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B524" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -7284,6 +9794,11 @@
       </c>
     </row>
     <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B525" t="inlineStr">
         <is>
           <t>Colón</t>
@@ -7297,6 +9812,11 @@
       </c>
     </row>
     <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B526" t="inlineStr">
         <is>
           <t>El Marqués</t>
@@ -7310,6 +9830,11 @@
       </c>
     </row>
     <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B527" t="inlineStr">
         <is>
           <t>Ezequiel Montes</t>
@@ -7323,6 +9848,11 @@
       </c>
     </row>
     <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B528" t="inlineStr">
         <is>
           <t>Huimilpan</t>
@@ -7336,6 +9866,11 @@
       </c>
     </row>
     <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B529" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -7349,6 +9884,11 @@
       </c>
     </row>
     <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B530" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -7362,6 +9902,11 @@
       </c>
     </row>
     <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B531" t="inlineStr">
         <is>
           <t>Peñamiller</t>
@@ -7375,6 +9920,11 @@
       </c>
     </row>
     <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B532" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -7388,6 +9938,11 @@
       </c>
     </row>
     <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B533" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -7401,6 +9956,11 @@
       </c>
     </row>
     <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B534" t="inlineStr">
         <is>
           <t>San Joaquín</t>
@@ -7414,6 +9974,11 @@
       </c>
     </row>
     <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B535" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -7427,6 +9992,11 @@
       </c>
     </row>
     <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B536" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7458,6 +10028,11 @@
       </c>
     </row>
     <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B538" t="inlineStr">
         <is>
           <t>Othón P. Blanco</t>
@@ -7471,6 +10046,11 @@
       </c>
     </row>
     <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B539" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7502,6 +10082,11 @@
       </c>
     </row>
     <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B541" t="inlineStr">
         <is>
           <t>Alaquines</t>
@@ -7515,6 +10100,11 @@
       </c>
     </row>
     <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B542" t="inlineStr">
         <is>
           <t>Aquismón</t>
@@ -7528,6 +10118,11 @@
       </c>
     </row>
     <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B543" t="inlineStr">
         <is>
           <t>Cerritos</t>
@@ -7541,6 +10136,11 @@
       </c>
     </row>
     <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
           <t>Ciudad Del Maíz</t>
@@ -7554,6 +10154,11 @@
       </c>
     </row>
     <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B545" t="inlineStr">
         <is>
           <t>Ciudad Fernández</t>
@@ -7567,6 +10172,11 @@
       </c>
     </row>
     <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B546" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -7580,6 +10190,11 @@
       </c>
     </row>
     <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B547" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -7593,6 +10208,11 @@
       </c>
     </row>
     <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B548" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -7606,6 +10226,11 @@
       </c>
     </row>
     <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B549" t="inlineStr">
         <is>
           <t>El Naranjo</t>
@@ -7619,6 +10244,11 @@
       </c>
     </row>
     <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B550" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -7632,6 +10262,11 @@
       </c>
     </row>
     <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B551" t="inlineStr">
         <is>
           <t>Moctezuma</t>
@@ -7645,6 +10280,11 @@
       </c>
     </row>
     <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B552" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -7658,6 +10298,11 @@
       </c>
     </row>
     <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B553" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -7671,6 +10316,11 @@
       </c>
     </row>
     <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B554" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -7684,6 +10334,11 @@
       </c>
     </row>
     <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B555" t="inlineStr">
         <is>
           <t>San Ciro De Acosta</t>
@@ -7697,6 +10352,11 @@
       </c>
     </row>
     <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B556" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -7710,6 +10370,11 @@
       </c>
     </row>
     <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B557" t="inlineStr">
         <is>
           <t>San Nicolás Tolentino</t>
@@ -7723,6 +10388,11 @@
       </c>
     </row>
     <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B558" t="inlineStr">
         <is>
           <t>San Vicente Tancuayalab</t>
@@ -7736,6 +10406,11 @@
       </c>
     </row>
     <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B559" t="inlineStr">
         <is>
           <t>Santa Catarina</t>
@@ -7749,6 +10424,11 @@
       </c>
     </row>
     <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B560" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -7762,6 +10442,11 @@
       </c>
     </row>
     <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B561" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -7775,6 +10460,11 @@
       </c>
     </row>
     <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B562" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -7788,6 +10478,11 @@
       </c>
     </row>
     <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B563" t="inlineStr">
         <is>
           <t>Tamuín</t>
@@ -7801,6 +10496,11 @@
       </c>
     </row>
     <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B564" t="inlineStr">
         <is>
           <t>Tanlajás</t>
@@ -7814,6 +10514,11 @@
       </c>
     </row>
     <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B565" t="inlineStr">
         <is>
           <t>Tanquián De Escobedo</t>
@@ -7827,6 +10532,11 @@
       </c>
     </row>
     <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B566" t="inlineStr">
         <is>
           <t>Tierra Nueva</t>
@@ -7840,6 +10550,11 @@
       </c>
     </row>
     <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B567" t="inlineStr">
         <is>
           <t>Villa De Arriaga</t>
@@ -7853,6 +10568,11 @@
       </c>
     </row>
     <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B568" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -7866,6 +10586,11 @@
       </c>
     </row>
     <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B569" t="inlineStr">
         <is>
           <t>Villa Juárez</t>
@@ -7879,6 +10604,11 @@
       </c>
     </row>
     <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B570" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -7892,6 +10622,11 @@
       </c>
     </row>
     <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B571" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7923,6 +10658,11 @@
       </c>
     </row>
     <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B573" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -7936,6 +10676,11 @@
       </c>
     </row>
     <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B574" t="inlineStr">
         <is>
           <t>Elota</t>
@@ -7949,6 +10694,11 @@
       </c>
     </row>
     <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B575" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -7962,6 +10712,11 @@
       </c>
     </row>
     <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B576" t="inlineStr">
         <is>
           <t>Salvador Alvarado</t>
@@ -7975,6 +10730,11 @@
       </c>
     </row>
     <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B577" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -7988,6 +10748,11 @@
       </c>
     </row>
     <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B578" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8019,6 +10784,11 @@
       </c>
     </row>
     <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B580" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -8032,6 +10802,11 @@
       </c>
     </row>
     <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B581" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -8045,6 +10820,11 @@
       </c>
     </row>
     <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B582" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -8058,6 +10838,11 @@
       </c>
     </row>
     <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B583" t="inlineStr">
         <is>
           <t>Puerto Peñasco</t>
@@ -8071,6 +10856,11 @@
       </c>
     </row>
     <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B584" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8102,6 +10892,11 @@
       </c>
     </row>
     <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B586" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -8115,6 +10910,11 @@
       </c>
     </row>
     <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B587" t="inlineStr">
         <is>
           <t>Comalcalco</t>
@@ -8128,6 +10928,11 @@
       </c>
     </row>
     <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B588" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -8141,6 +10946,11 @@
       </c>
     </row>
     <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B589" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -8154,6 +10964,11 @@
       </c>
     </row>
     <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B590" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -8167,6 +10982,11 @@
       </c>
     </row>
     <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B591" t="inlineStr">
         <is>
           <t>Jalapa</t>
@@ -8180,6 +11000,11 @@
       </c>
     </row>
     <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B592" t="inlineStr">
         <is>
           <t>Macuspana</t>
@@ -8193,6 +11018,11 @@
       </c>
     </row>
     <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B593" t="inlineStr">
         <is>
           <t>Tacotalpa</t>
@@ -8206,6 +11036,11 @@
       </c>
     </row>
     <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B594" t="inlineStr">
         <is>
           <t>Tenosique</t>
@@ -8219,6 +11054,11 @@
       </c>
     </row>
     <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B595" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8250,6 +11090,11 @@
       </c>
     </row>
     <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B597" t="inlineStr">
         <is>
           <t>Bustamante</t>
@@ -8263,6 +11108,11 @@
       </c>
     </row>
     <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B598" t="inlineStr">
         <is>
           <t>Casas</t>
@@ -8276,6 +11126,11 @@
       </c>
     </row>
     <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B599" t="inlineStr">
         <is>
           <t>Ciudad Madero</t>
@@ -8289,6 +11144,11 @@
       </c>
     </row>
     <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B600" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -8302,6 +11162,11 @@
       </c>
     </row>
     <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B601" t="inlineStr">
         <is>
           <t>González</t>
@@ -8315,6 +11180,11 @@
       </c>
     </row>
     <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B602" t="inlineStr">
         <is>
           <t>Gustavo Díaz Ordaz</t>
@@ -8328,6 +11198,11 @@
       </c>
     </row>
     <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B603" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -8341,6 +11216,11 @@
       </c>
     </row>
     <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B604" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -8354,6 +11234,11 @@
       </c>
     </row>
     <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B605" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -8367,6 +11252,11 @@
       </c>
     </row>
     <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B606" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -8380,6 +11270,11 @@
       </c>
     </row>
     <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B607" t="inlineStr">
         <is>
           <t>Nuevo Morelos</t>
@@ -8393,6 +11288,11 @@
       </c>
     </row>
     <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B608" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -8406,6 +11306,11 @@
       </c>
     </row>
     <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B609" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -8419,6 +11324,11 @@
       </c>
     </row>
     <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B610" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -8432,6 +11342,11 @@
       </c>
     </row>
     <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B611" t="inlineStr">
         <is>
           <t>San Fernando</t>
@@ -8445,6 +11360,11 @@
       </c>
     </row>
     <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B612" t="inlineStr">
         <is>
           <t>Soto La Marina</t>
@@ -8458,6 +11378,11 @@
       </c>
     </row>
     <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B613" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -8471,6 +11396,11 @@
       </c>
     </row>
     <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B614" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -8484,6 +11414,11 @@
       </c>
     </row>
     <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B615" t="inlineStr">
         <is>
           <t>Valle Hermoso</t>
@@ -8497,6 +11432,11 @@
       </c>
     </row>
     <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B616" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -8510,6 +11450,11 @@
       </c>
     </row>
     <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B617" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8541,6 +11486,11 @@
       </c>
     </row>
     <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B619" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -8554,6 +11504,11 @@
       </c>
     </row>
     <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B620" t="inlineStr">
         <is>
           <t>Santa Cruz Tlaxcala</t>
@@ -8567,6 +11522,11 @@
       </c>
     </row>
     <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B621" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -8580,6 +11540,11 @@
       </c>
     </row>
     <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B622" t="inlineStr">
         <is>
           <t>Terrenate</t>
@@ -8593,6 +11558,11 @@
       </c>
     </row>
     <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B623" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -8606,6 +11576,11 @@
       </c>
     </row>
     <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B624" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8637,6 +11612,11 @@
       </c>
     </row>
     <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B626" t="inlineStr">
         <is>
           <t>Acayucan</t>
@@ -8650,6 +11630,11 @@
       </c>
     </row>
     <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B627" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -8663,6 +11648,11 @@
       </c>
     </row>
     <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B628" t="inlineStr">
         <is>
           <t>Acula</t>
@@ -8676,6 +11666,11 @@
       </c>
     </row>
     <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B629" t="inlineStr">
         <is>
           <t>Alpatláhuac</t>
@@ -8689,6 +11684,11 @@
       </c>
     </row>
     <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B630" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -8702,6 +11702,11 @@
       </c>
     </row>
     <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B631" t="inlineStr">
         <is>
           <t>Alvarado</t>
@@ -8715,6 +11720,11 @@
       </c>
     </row>
     <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B632" t="inlineStr">
         <is>
           <t>Amatitlán</t>
@@ -8728,6 +11738,11 @@
       </c>
     </row>
     <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B633" t="inlineStr">
         <is>
           <t>Amatlán De Los Reyes</t>
@@ -8741,6 +11756,11 @@
       </c>
     </row>
     <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B634" t="inlineStr">
         <is>
           <t>Astacinga</t>
@@ -8754,6 +11774,11 @@
       </c>
     </row>
     <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B635" t="inlineStr">
         <is>
           <t>Atlahuilco</t>
@@ -8767,6 +11792,11 @@
       </c>
     </row>
     <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B636" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -8780,6 +11810,11 @@
       </c>
     </row>
     <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B637" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -8793,6 +11828,11 @@
       </c>
     </row>
     <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B638" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -8806,6 +11846,11 @@
       </c>
     </row>
     <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B639" t="inlineStr">
         <is>
           <t>Boca Del Río</t>
@@ -8819,6 +11864,11 @@
       </c>
     </row>
     <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B640" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -8832,6 +11882,11 @@
       </c>
     </row>
     <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B641" t="inlineStr">
         <is>
           <t>Carrillo Puerto</t>
@@ -8845,6 +11900,11 @@
       </c>
     </row>
     <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B642" t="inlineStr">
         <is>
           <t>Castillo De Teayo</t>
@@ -8858,6 +11918,11 @@
       </c>
     </row>
     <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B643" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -8871,6 +11936,11 @@
       </c>
     </row>
     <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B644" t="inlineStr">
         <is>
           <t>Chicontepec</t>
@@ -8884,6 +11954,11 @@
       </c>
     </row>
     <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B645" t="inlineStr">
         <is>
           <t>Chinameca</t>
@@ -8897,6 +11972,11 @@
       </c>
     </row>
     <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B646" t="inlineStr">
         <is>
           <t>Coatepec</t>
@@ -8910,6 +11990,11 @@
       </c>
     </row>
     <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B647" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -8923,6 +12008,11 @@
       </c>
     </row>
     <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B648" t="inlineStr">
         <is>
           <t>Colipa</t>
@@ -8936,6 +12026,11 @@
       </c>
     </row>
     <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B649" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -8949,6 +12044,11 @@
       </c>
     </row>
     <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B650" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -8962,6 +12062,11 @@
       </c>
     </row>
     <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B651" t="inlineStr">
         <is>
           <t>Cotaxtla</t>
@@ -8975,6 +12080,11 @@
       </c>
     </row>
     <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B652" t="inlineStr">
         <is>
           <t>Coxquihui</t>
@@ -8988,6 +12098,11 @@
       </c>
     </row>
     <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B653" t="inlineStr">
         <is>
           <t>Coyutla</t>
@@ -9001,6 +12116,11 @@
       </c>
     </row>
     <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B654" t="inlineStr">
         <is>
           <t>Cuichapa</t>
@@ -9014,6 +12134,11 @@
       </c>
     </row>
     <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B655" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -9027,6 +12152,11 @@
       </c>
     </row>
     <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B656" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -9040,6 +12170,11 @@
       </c>
     </row>
     <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B657" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -9053,6 +12188,11 @@
       </c>
     </row>
     <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B658" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -9066,6 +12206,11 @@
       </c>
     </row>
     <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B659" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -9079,6 +12224,11 @@
       </c>
     </row>
     <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B660" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -9092,6 +12242,11 @@
       </c>
     </row>
     <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B661" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -9105,6 +12260,11 @@
       </c>
     </row>
     <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B662" t="inlineStr">
         <is>
           <t>Ixmatlahuacan</t>
@@ -9118,6 +12278,11 @@
       </c>
     </row>
     <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B663" t="inlineStr">
         <is>
           <t>Jalacingo</t>
@@ -9131,6 +12296,11 @@
       </c>
     </row>
     <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B664" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -9144,6 +12314,11 @@
       </c>
     </row>
     <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B665" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -9157,6 +12332,11 @@
       </c>
     </row>
     <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B666" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -9170,6 +12350,11 @@
       </c>
     </row>
     <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B667" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -9183,6 +12368,11 @@
       </c>
     </row>
     <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B668" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -9196,6 +12386,11 @@
       </c>
     </row>
     <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B669" t="inlineStr">
         <is>
           <t>Las Minas</t>
@@ -9209,6 +12404,11 @@
       </c>
     </row>
     <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B670" t="inlineStr">
         <is>
           <t>Lerdo De Tejada</t>
@@ -9222,6 +12422,11 @@
       </c>
     </row>
     <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B671" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -9235,6 +12440,11 @@
       </c>
     </row>
     <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B672" t="inlineStr">
         <is>
           <t>Mecayapan</t>
@@ -9248,6 +12458,11 @@
       </c>
     </row>
     <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B673" t="inlineStr">
         <is>
           <t>Medellín</t>
@@ -9261,6 +12476,11 @@
       </c>
     </row>
     <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B674" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -9274,6 +12494,11 @@
       </c>
     </row>
     <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B675" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -9287,6 +12512,11 @@
       </c>
     </row>
     <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B676" t="inlineStr">
         <is>
           <t>Moloacán</t>
@@ -9300,6 +12530,11 @@
       </c>
     </row>
     <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B677" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -9313,6 +12548,11 @@
       </c>
     </row>
     <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B678" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -9326,6 +12566,11 @@
       </c>
     </row>
     <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B679" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -9339,6 +12584,11 @@
       </c>
     </row>
     <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B680" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -9352,6 +12602,11 @@
       </c>
     </row>
     <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B681" t="inlineStr">
         <is>
           <t>Paso Del Macho</t>
@@ -9365,6 +12620,11 @@
       </c>
     </row>
     <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B682" t="inlineStr">
         <is>
           <t>Perote</t>
@@ -9378,6 +12638,11 @@
       </c>
     </row>
     <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B683" t="inlineStr">
         <is>
           <t>Platón Sánchez</t>
@@ -9391,6 +12656,11 @@
       </c>
     </row>
     <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B684" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -9404,6 +12674,11 @@
       </c>
     </row>
     <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B685" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -9417,6 +12692,11 @@
       </c>
     </row>
     <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B686" t="inlineStr">
         <is>
           <t>Puente Nacional</t>
@@ -9430,6 +12710,11 @@
       </c>
     </row>
     <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B687" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -9443,6 +12728,11 @@
       </c>
     </row>
     <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B688" t="inlineStr">
         <is>
           <t>Río Blanco</t>
@@ -9456,6 +12746,11 @@
       </c>
     </row>
     <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B689" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -9469,6 +12764,11 @@
       </c>
     </row>
     <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B690" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -9482,6 +12782,11 @@
       </c>
     </row>
     <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B691" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -9495,6 +12800,11 @@
       </c>
     </row>
     <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B692" t="inlineStr">
         <is>
           <t>Sayula De Alemán</t>
@@ -9508,6 +12818,11 @@
       </c>
     </row>
     <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B693" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -9521,6 +12836,11 @@
       </c>
     </row>
     <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B694" t="inlineStr">
         <is>
           <t>Soteapan</t>
@@ -9534,6 +12854,11 @@
       </c>
     </row>
     <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B695" t="inlineStr">
         <is>
           <t>Tatahuicapan De Juárez</t>
@@ -9547,6 +12872,11 @@
       </c>
     </row>
     <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B696" t="inlineStr">
         <is>
           <t>Tehuipango</t>
@@ -9560,6 +12890,11 @@
       </c>
     </row>
     <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B697" t="inlineStr">
         <is>
           <t>Tempoal</t>
@@ -9573,6 +12908,11 @@
       </c>
     </row>
     <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B698" t="inlineStr">
         <is>
           <t>Teocelo</t>
@@ -9586,6 +12926,11 @@
       </c>
     </row>
     <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B699" t="inlineStr">
         <is>
           <t>Texistepec</t>
@@ -9599,6 +12944,11 @@
       </c>
     </row>
     <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B700" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -9612,6 +12962,11 @@
       </c>
     </row>
     <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B701" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -9625,6 +12980,11 @@
       </c>
     </row>
     <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B702" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -9638,6 +12998,11 @@
       </c>
     </row>
     <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B703" t="inlineStr">
         <is>
           <t>Tlacotalpan</t>
@@ -9651,6 +13016,11 @@
       </c>
     </row>
     <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B704" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -9664,6 +13034,11 @@
       </c>
     </row>
     <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B705" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -9677,6 +13052,11 @@
       </c>
     </row>
     <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B706" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -9690,6 +13070,11 @@
       </c>
     </row>
     <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B707" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -9703,6 +13088,11 @@
       </c>
     </row>
     <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B708" t="inlineStr">
         <is>
           <t>Ursulo Galván</t>
@@ -9716,6 +13106,11 @@
       </c>
     </row>
     <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B709" t="inlineStr">
         <is>
           <t>Uxpanapa</t>
@@ -9729,6 +13124,11 @@
       </c>
     </row>
     <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B710" t="inlineStr">
         <is>
           <t>Vega De Alatorre</t>
@@ -9742,6 +13142,11 @@
       </c>
     </row>
     <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B711" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -9755,6 +13160,11 @@
       </c>
     </row>
     <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B712" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -9768,6 +13178,11 @@
       </c>
     </row>
     <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B713" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -9781,6 +13196,11 @@
       </c>
     </row>
     <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B714" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -9794,6 +13214,11 @@
       </c>
     </row>
     <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B715" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -9807,6 +13232,11 @@
       </c>
     </row>
     <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B716" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9838,6 +13268,11 @@
       </c>
     </row>
     <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B718" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9869,6 +13304,11 @@
       </c>
     </row>
     <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B720" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -9882,6 +13322,11 @@
       </c>
     </row>
     <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B721" t="inlineStr">
         <is>
           <t>General Francisco R. Murguía</t>
@@ -9895,6 +13340,11 @@
       </c>
     </row>
     <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B722" t="inlineStr">
         <is>
           <t>General Pánfilo Natera</t>
@@ -9908,6 +13358,11 @@
       </c>
     </row>
     <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B723" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -9921,6 +13376,11 @@
       </c>
     </row>
     <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B724" t="inlineStr">
         <is>
           <t>Huanusco</t>
@@ -9934,6 +13394,11 @@
       </c>
     </row>
     <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B725" t="inlineStr">
         <is>
           <t>Jalpa</t>
@@ -9947,6 +13412,11 @@
       </c>
     </row>
     <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B726" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -9960,6 +13430,11 @@
       </c>
     </row>
     <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B727" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -9973,6 +13448,11 @@
       </c>
     </row>
     <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B728" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -9986,6 +13466,11 @@
       </c>
     </row>
     <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B729" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -9999,6 +13484,11 @@
       </c>
     </row>
     <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B730" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -10012,6 +13502,11 @@
       </c>
     </row>
     <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B731" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -10025,6 +13520,11 @@
       </c>
     </row>
     <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B732" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -10038,6 +13538,11 @@
       </c>
     </row>
     <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B733" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -10051,6 +13556,11 @@
       </c>
     </row>
     <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B734" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -10064,6 +13574,11 @@
       </c>
     </row>
     <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B735" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -10077,6 +13592,11 @@
       </c>
     </row>
     <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B736" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -10090,6 +13610,11 @@
       </c>
     </row>
     <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B737" t="inlineStr">
         <is>
           <t>Total</t>
